--- a/stock_historical_data/1d/APEX.NS.xlsx
+++ b/stock_historical_data/1d/APEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1675"/>
+  <dimension ref="A1:R1676"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93757,7 +93757,7 @@
         <v>23</v>
       </c>
       <c r="O1666" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1666" t="n">
         <v>0</v>
@@ -94269,7 +94269,63 @@
       <c r="Q1675" t="n">
         <v>0</v>
       </c>
-      <c r="R1675" t="inlineStr"/>
+      <c r="R1675" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1676">
+      <c r="A1676" s="2" t="n">
+        <v>45462</v>
+      </c>
+      <c r="B1676" t="n">
+        <v>233.6999969482422</v>
+      </c>
+      <c r="C1676" t="n">
+        <v>244.8999938964844</v>
+      </c>
+      <c r="D1676" t="n">
+        <v>228.7200012207031</v>
+      </c>
+      <c r="E1676" t="n">
+        <v>235.8399963378906</v>
+      </c>
+      <c r="F1676" t="n">
+        <v>235.8399963378906</v>
+      </c>
+      <c r="G1676" t="n">
+        <v>445846</v>
+      </c>
+      <c r="H1676" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1676" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1676" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1676" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1676" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1676" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1676" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1676" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1676" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1676" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1676" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/APEX.NS.xlsx
+++ b/stock_historical_data/1d/APEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1676"/>
+  <dimension ref="A1:R1683"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93981,7 +93981,7 @@
         <v>24</v>
       </c>
       <c r="O1670" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1670" t="n">
         <v>0</v>
@@ -94325,7 +94325,387 @@
       <c r="Q1676" t="n">
         <v>0</v>
       </c>
-      <c r="R1676" t="inlineStr"/>
+      <c r="R1676" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1677">
+      <c r="A1677" s="2" t="n">
+        <v>45463</v>
+      </c>
+      <c r="B1677" t="n">
+        <v>237.5</v>
+      </c>
+      <c r="C1677" t="n">
+        <v>238.4499969482422</v>
+      </c>
+      <c r="D1677" t="n">
+        <v>234.0099945068359</v>
+      </c>
+      <c r="E1677" t="n">
+        <v>234.6399993896484</v>
+      </c>
+      <c r="F1677" t="n">
+        <v>234.6399993896484</v>
+      </c>
+      <c r="G1677" t="n">
+        <v>99645</v>
+      </c>
+      <c r="H1677" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1677" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1677" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1677" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1677" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1677" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1677" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1677" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1677" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1677" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1677" t="inlineStr"/>
+    </row>
+    <row r="1678">
+      <c r="A1678" s="2" t="n">
+        <v>45464</v>
+      </c>
+      <c r="B1678" t="n">
+        <v>235</v>
+      </c>
+      <c r="C1678" t="n">
+        <v>236.8999938964844</v>
+      </c>
+      <c r="D1678" t="n">
+        <v>232</v>
+      </c>
+      <c r="E1678" t="n">
+        <v>232.8000030517578</v>
+      </c>
+      <c r="F1678" t="n">
+        <v>232.8000030517578</v>
+      </c>
+      <c r="G1678" t="n">
+        <v>78366</v>
+      </c>
+      <c r="H1678" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1678" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1678" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1678" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1678" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1678" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1678" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1678" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1678" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1678" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1678" t="inlineStr"/>
+    </row>
+    <row r="1679">
+      <c r="A1679" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B1679" t="n">
+        <v>232</v>
+      </c>
+      <c r="C1679" t="n">
+        <v>235.4799957275391</v>
+      </c>
+      <c r="D1679" t="n">
+        <v>229</v>
+      </c>
+      <c r="E1679" t="n">
+        <v>231.2400054931641</v>
+      </c>
+      <c r="F1679" t="n">
+        <v>231.2400054931641</v>
+      </c>
+      <c r="G1679" t="n">
+        <v>77644</v>
+      </c>
+      <c r="H1679" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1679" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1679" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1679" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1679" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1679" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1679" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1679" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1679" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1679" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1679" t="inlineStr"/>
+    </row>
+    <row r="1680">
+      <c r="A1680" s="2" t="n">
+        <v>45468</v>
+      </c>
+      <c r="B1680" t="n">
+        <v>231.2599945068359</v>
+      </c>
+      <c r="C1680" t="n">
+        <v>236.8000030517578</v>
+      </c>
+      <c r="D1680" t="n">
+        <v>229</v>
+      </c>
+      <c r="E1680" t="n">
+        <v>230.1399993896484</v>
+      </c>
+      <c r="F1680" t="n">
+        <v>230.1399993896484</v>
+      </c>
+      <c r="G1680" t="n">
+        <v>121038</v>
+      </c>
+      <c r="H1680" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1680" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1680" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1680" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1680" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1680" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1680" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1680" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1680" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1680" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1680" t="inlineStr"/>
+    </row>
+    <row r="1681">
+      <c r="A1681" s="2" t="n">
+        <v>45469</v>
+      </c>
+      <c r="B1681" t="n">
+        <v>231.75</v>
+      </c>
+      <c r="C1681" t="n">
+        <v>231.75</v>
+      </c>
+      <c r="D1681" t="n">
+        <v>225.75</v>
+      </c>
+      <c r="E1681" t="n">
+        <v>226.5800018310547</v>
+      </c>
+      <c r="F1681" t="n">
+        <v>226.5800018310547</v>
+      </c>
+      <c r="G1681" t="n">
+        <v>77404</v>
+      </c>
+      <c r="H1681" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1681" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1681" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1681" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1681" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1681" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1681" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1681" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1681" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1681" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1681" t="inlineStr"/>
+    </row>
+    <row r="1682">
+      <c r="A1682" s="2" t="n">
+        <v>45470</v>
+      </c>
+      <c r="B1682" t="n">
+        <v>226.5800018310547</v>
+      </c>
+      <c r="C1682" t="n">
+        <v>230.1900024414062</v>
+      </c>
+      <c r="D1682" t="n">
+        <v>220.0099945068359</v>
+      </c>
+      <c r="E1682" t="n">
+        <v>220.7400054931641</v>
+      </c>
+      <c r="F1682" t="n">
+        <v>220.7400054931641</v>
+      </c>
+      <c r="G1682" t="n">
+        <v>91770</v>
+      </c>
+      <c r="H1682" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1682" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1682" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1682" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1682" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1682" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1682" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1682" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1682" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1682" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1682" t="inlineStr"/>
+    </row>
+    <row r="1683">
+      <c r="A1683" s="2" t="n">
+        <v>45471</v>
+      </c>
+      <c r="B1683" t="n">
+        <v>221.8999938964844</v>
+      </c>
+      <c r="C1683" t="n">
+        <v>226</v>
+      </c>
+      <c r="D1683" t="n">
+        <v>221.2200012207031</v>
+      </c>
+      <c r="E1683" t="n">
+        <v>222.2100067138672</v>
+      </c>
+      <c r="F1683" t="n">
+        <v>222.2100067138672</v>
+      </c>
+      <c r="G1683" t="n">
+        <v>72375</v>
+      </c>
+      <c r="H1683" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1683" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1683" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1683" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1683" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1683" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1683" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1683" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1683" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1683" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1683" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/APEX.NS.xlsx
+++ b/stock_historical_data/1d/APEX.NS.xlsx
@@ -94381,7 +94381,9 @@
       <c r="Q1677" t="n">
         <v>0</v>
       </c>
-      <c r="R1677" t="inlineStr"/>
+      <c r="R1677" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1678">
       <c r="A1678" s="2" t="n">
@@ -94435,7 +94437,9 @@
       <c r="Q1678" t="n">
         <v>0</v>
       </c>
-      <c r="R1678" t="inlineStr"/>
+      <c r="R1678" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1679">
       <c r="A1679" s="2" t="n">
@@ -94489,7 +94493,9 @@
       <c r="Q1679" t="n">
         <v>0</v>
       </c>
-      <c r="R1679" t="inlineStr"/>
+      <c r="R1679" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1680">
       <c r="A1680" s="2" t="n">
@@ -94543,7 +94549,9 @@
       <c r="Q1680" t="n">
         <v>0</v>
       </c>
-      <c r="R1680" t="inlineStr"/>
+      <c r="R1680" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1681">
       <c r="A1681" s="2" t="n">
@@ -94597,7 +94605,9 @@
       <c r="Q1681" t="n">
         <v>0</v>
       </c>
-      <c r="R1681" t="inlineStr"/>
+      <c r="R1681" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1682">
       <c r="A1682" s="2" t="n">
@@ -94651,7 +94661,9 @@
       <c r="Q1682" t="n">
         <v>0</v>
       </c>
-      <c r="R1682" t="inlineStr"/>
+      <c r="R1682" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1683">
       <c r="A1683" s="2" t="n">
@@ -94705,7 +94717,9 @@
       <c r="Q1683" t="n">
         <v>0</v>
       </c>
-      <c r="R1683" t="inlineStr"/>
+      <c r="R1683" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/APEX.NS.xlsx
+++ b/stock_historical_data/1d/APEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1683"/>
+  <dimension ref="A1:R1688"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94721,6 +94721,276 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1684">
+      <c r="A1684" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B1684" t="n">
+        <v>223.1000061035156</v>
+      </c>
+      <c r="C1684" t="n">
+        <v>226.3800048828125</v>
+      </c>
+      <c r="D1684" t="n">
+        <v>222.8099975585938</v>
+      </c>
+      <c r="E1684" t="n">
+        <v>223.8500061035156</v>
+      </c>
+      <c r="F1684" t="n">
+        <v>223.8500061035156</v>
+      </c>
+      <c r="G1684" t="n">
+        <v>109688</v>
+      </c>
+      <c r="H1684" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1684" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1684" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1684" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1684" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1684" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1684" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1684" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1684" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1684" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1684" t="inlineStr"/>
+    </row>
+    <row r="1685">
+      <c r="A1685" s="2" t="n">
+        <v>45475</v>
+      </c>
+      <c r="B1685" t="n">
+        <v>225.4499969482422</v>
+      </c>
+      <c r="C1685" t="n">
+        <v>228</v>
+      </c>
+      <c r="D1685" t="n">
+        <v>220.5</v>
+      </c>
+      <c r="E1685" t="n">
+        <v>222.25</v>
+      </c>
+      <c r="F1685" t="n">
+        <v>222.25</v>
+      </c>
+      <c r="G1685" t="n">
+        <v>85315</v>
+      </c>
+      <c r="H1685" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1685" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1685" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1685" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1685" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1685" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1685" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1685" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1685" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1685" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1685" t="inlineStr"/>
+    </row>
+    <row r="1686">
+      <c r="A1686" s="2" t="n">
+        <v>45476</v>
+      </c>
+      <c r="B1686" t="n">
+        <v>223.8999938964844</v>
+      </c>
+      <c r="C1686" t="n">
+        <v>228.9100036621094</v>
+      </c>
+      <c r="D1686" t="n">
+        <v>223.0099945068359</v>
+      </c>
+      <c r="E1686" t="n">
+        <v>224.6900024414062</v>
+      </c>
+      <c r="F1686" t="n">
+        <v>224.6900024414062</v>
+      </c>
+      <c r="G1686" t="n">
+        <v>87161</v>
+      </c>
+      <c r="H1686" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1686" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1686" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1686" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1686" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1686" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1686" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1686" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1686" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1686" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1686" t="inlineStr"/>
+    </row>
+    <row r="1687">
+      <c r="A1687" s="2" t="n">
+        <v>45477</v>
+      </c>
+      <c r="B1687" t="n">
+        <v>224.8999938964844</v>
+      </c>
+      <c r="C1687" t="n">
+        <v>229</v>
+      </c>
+      <c r="D1687" t="n">
+        <v>224</v>
+      </c>
+      <c r="E1687" t="n">
+        <v>226.2400054931641</v>
+      </c>
+      <c r="F1687" t="n">
+        <v>226.2400054931641</v>
+      </c>
+      <c r="G1687" t="n">
+        <v>104895</v>
+      </c>
+      <c r="H1687" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1687" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1687" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1687" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1687" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1687" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1687" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1687" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1687" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1687" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1687" t="inlineStr"/>
+    </row>
+    <row r="1688">
+      <c r="A1688" s="2" t="n">
+        <v>45478</v>
+      </c>
+      <c r="B1688" t="n">
+        <v>227</v>
+      </c>
+      <c r="C1688" t="n">
+        <v>235.6499938964844</v>
+      </c>
+      <c r="D1688" t="n">
+        <v>225.8500061035156</v>
+      </c>
+      <c r="E1688" t="n">
+        <v>233.1399993896484</v>
+      </c>
+      <c r="F1688" t="n">
+        <v>233.1399993896484</v>
+      </c>
+      <c r="G1688" t="n">
+        <v>182552</v>
+      </c>
+      <c r="H1688" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1688" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1688" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1688" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1688" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1688" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1688" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1688" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1688" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1688" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1688" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1d/APEX.NS.xlsx
+++ b/stock_historical_data/1d/APEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1688"/>
+  <dimension ref="A1:R1697"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94653,7 +94653,7 @@
         <v>26</v>
       </c>
       <c r="O1682" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1682" t="n">
         <v>0</v>
@@ -94773,7 +94773,9 @@
       <c r="Q1684" t="n">
         <v>0</v>
       </c>
-      <c r="R1684" t="inlineStr"/>
+      <c r="R1684" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1685">
       <c r="A1685" s="2" t="n">
@@ -94827,7 +94829,9 @@
       <c r="Q1685" t="n">
         <v>0</v>
       </c>
-      <c r="R1685" t="inlineStr"/>
+      <c r="R1685" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1686">
       <c r="A1686" s="2" t="n">
@@ -94881,7 +94885,9 @@
       <c r="Q1686" t="n">
         <v>0</v>
       </c>
-      <c r="R1686" t="inlineStr"/>
+      <c r="R1686" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1687">
       <c r="A1687" s="2" t="n">
@@ -94935,7 +94941,9 @@
       <c r="Q1687" t="n">
         <v>0</v>
       </c>
-      <c r="R1687" t="inlineStr"/>
+      <c r="R1687" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1688">
       <c r="A1688" s="2" t="n">
@@ -94989,7 +94997,495 @@
       <c r="Q1688" t="n">
         <v>0</v>
       </c>
-      <c r="R1688" t="inlineStr"/>
+      <c r="R1688" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1689">
+      <c r="A1689" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B1689" t="n">
+        <v>234.6999969482422</v>
+      </c>
+      <c r="C1689" t="n">
+        <v>237.0599975585938</v>
+      </c>
+      <c r="D1689" t="n">
+        <v>228.0399932861328</v>
+      </c>
+      <c r="E1689" t="n">
+        <v>230.8200073242188</v>
+      </c>
+      <c r="F1689" t="n">
+        <v>230.8200073242188</v>
+      </c>
+      <c r="G1689" t="n">
+        <v>107327</v>
+      </c>
+      <c r="H1689" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1689" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1689" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1689" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1689" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1689" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1689" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1689" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1689" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1689" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1689" t="inlineStr"/>
+    </row>
+    <row r="1690">
+      <c r="A1690" s="2" t="n">
+        <v>45482</v>
+      </c>
+      <c r="B1690" t="n">
+        <v>231.7400054931641</v>
+      </c>
+      <c r="C1690" t="n">
+        <v>237.7100067138672</v>
+      </c>
+      <c r="D1690" t="n">
+        <v>226.9100036621094</v>
+      </c>
+      <c r="E1690" t="n">
+        <v>227.8399963378906</v>
+      </c>
+      <c r="F1690" t="n">
+        <v>227.8399963378906</v>
+      </c>
+      <c r="G1690" t="n">
+        <v>149414</v>
+      </c>
+      <c r="H1690" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1690" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1690" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1690" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1690" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1690" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1690" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1690" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1690" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1690" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1690" t="inlineStr"/>
+    </row>
+    <row r="1691">
+      <c r="A1691" s="2" t="n">
+        <v>45483</v>
+      </c>
+      <c r="B1691" t="n">
+        <v>228.8399963378906</v>
+      </c>
+      <c r="C1691" t="n">
+        <v>235</v>
+      </c>
+      <c r="D1691" t="n">
+        <v>222.4100036621094</v>
+      </c>
+      <c r="E1691" t="n">
+        <v>229.8500061035156</v>
+      </c>
+      <c r="F1691" t="n">
+        <v>229.8500061035156</v>
+      </c>
+      <c r="G1691" t="n">
+        <v>90503</v>
+      </c>
+      <c r="H1691" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1691" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1691" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1691" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1691" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1691" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1691" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1691" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1691" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1691" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1691" t="inlineStr"/>
+    </row>
+    <row r="1692">
+      <c r="A1692" s="2" t="n">
+        <v>45484</v>
+      </c>
+      <c r="B1692" t="n">
+        <v>229.8500061035156</v>
+      </c>
+      <c r="C1692" t="n">
+        <v>238</v>
+      </c>
+      <c r="D1692" t="n">
+        <v>228.1399993896484</v>
+      </c>
+      <c r="E1692" t="n">
+        <v>234.0200042724609</v>
+      </c>
+      <c r="F1692" t="n">
+        <v>234.0200042724609</v>
+      </c>
+      <c r="G1692" t="n">
+        <v>145528</v>
+      </c>
+      <c r="H1692" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1692" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1692" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1692" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1692" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1692" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1692" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1692" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1692" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1692" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1692" t="inlineStr"/>
+    </row>
+    <row r="1693">
+      <c r="A1693" s="2" t="n">
+        <v>45485</v>
+      </c>
+      <c r="B1693" t="n">
+        <v>234.0200042724609</v>
+      </c>
+      <c r="C1693" t="n">
+        <v>237</v>
+      </c>
+      <c r="D1693" t="n">
+        <v>227.4199981689453</v>
+      </c>
+      <c r="E1693" t="n">
+        <v>228.7700042724609</v>
+      </c>
+      <c r="F1693" t="n">
+        <v>228.7700042724609</v>
+      </c>
+      <c r="G1693" t="n">
+        <v>87461</v>
+      </c>
+      <c r="H1693" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1693" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1693" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1693" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1693" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1693" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1693" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1693" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1693" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1693" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1693" t="inlineStr"/>
+    </row>
+    <row r="1694">
+      <c r="A1694" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B1694" t="n">
+        <v>229</v>
+      </c>
+      <c r="C1694" t="n">
+        <v>232.1199951171875</v>
+      </c>
+      <c r="D1694" t="n">
+        <v>222.5099945068359</v>
+      </c>
+      <c r="E1694" t="n">
+        <v>223.7599945068359</v>
+      </c>
+      <c r="F1694" t="n">
+        <v>223.7599945068359</v>
+      </c>
+      <c r="G1694" t="n">
+        <v>134825</v>
+      </c>
+      <c r="H1694" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1694" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1694" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1694" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1694" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1694" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1694" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1694" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1694" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1694" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1694" t="inlineStr"/>
+    </row>
+    <row r="1695">
+      <c r="A1695" s="2" t="n">
+        <v>45489</v>
+      </c>
+      <c r="B1695" t="n">
+        <v>224</v>
+      </c>
+      <c r="C1695" t="n">
+        <v>229.5</v>
+      </c>
+      <c r="D1695" t="n">
+        <v>223.4400024414062</v>
+      </c>
+      <c r="E1695" t="n">
+        <v>225.4199981689453</v>
+      </c>
+      <c r="F1695" t="n">
+        <v>225.4199981689453</v>
+      </c>
+      <c r="G1695" t="n">
+        <v>92840</v>
+      </c>
+      <c r="H1695" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1695" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1695" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1695" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1695" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1695" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1695" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1695" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1695" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1695" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1695" t="inlineStr"/>
+    </row>
+    <row r="1696">
+      <c r="A1696" s="2" t="n">
+        <v>45491</v>
+      </c>
+      <c r="B1696" t="n">
+        <v>226.1999969482422</v>
+      </c>
+      <c r="C1696" t="n">
+        <v>243.9799957275391</v>
+      </c>
+      <c r="D1696" t="n">
+        <v>226.1999969482422</v>
+      </c>
+      <c r="E1696" t="n">
+        <v>231.0299987792969</v>
+      </c>
+      <c r="F1696" t="n">
+        <v>231.0299987792969</v>
+      </c>
+      <c r="G1696" t="n">
+        <v>765388</v>
+      </c>
+      <c r="H1696" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1696" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1696" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1696" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1696" t="inlineStr"/>
+    </row>
+    <row r="1697">
+      <c r="A1697" s="2" t="n">
+        <v>45492</v>
+      </c>
+      <c r="B1697" t="n">
+        <v>231.0299987792969</v>
+      </c>
+      <c r="C1697" t="n">
+        <v>259</v>
+      </c>
+      <c r="D1697" t="n">
+        <v>230.5099945068359</v>
+      </c>
+      <c r="E1697" t="n">
+        <v>237.6699981689453</v>
+      </c>
+      <c r="F1697" t="n">
+        <v>237.6699981689453</v>
+      </c>
+      <c r="G1697" t="n">
+        <v>2046548</v>
+      </c>
+      <c r="H1697" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1697" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1697" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1697" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1697" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1697" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1697" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1697" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1697" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1697" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1697" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/APEX.NS.xlsx
+++ b/stock_historical_data/1d/APEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1697"/>
+  <dimension ref="A1:R1707"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95053,7 +95053,9 @@
       <c r="Q1689" t="n">
         <v>0</v>
       </c>
-      <c r="R1689" t="inlineStr"/>
+      <c r="R1689" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1690">
       <c r="A1690" s="2" t="n">
@@ -95107,7 +95109,9 @@
       <c r="Q1690" t="n">
         <v>0</v>
       </c>
-      <c r="R1690" t="inlineStr"/>
+      <c r="R1690" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1691">
       <c r="A1691" s="2" t="n">
@@ -95161,7 +95165,9 @@
       <c r="Q1691" t="n">
         <v>0</v>
       </c>
-      <c r="R1691" t="inlineStr"/>
+      <c r="R1691" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1692">
       <c r="A1692" s="2" t="n">
@@ -95215,7 +95221,9 @@
       <c r="Q1692" t="n">
         <v>0</v>
       </c>
-      <c r="R1692" t="inlineStr"/>
+      <c r="R1692" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1693">
       <c r="A1693" s="2" t="n">
@@ -95269,7 +95277,9 @@
       <c r="Q1693" t="n">
         <v>0</v>
       </c>
-      <c r="R1693" t="inlineStr"/>
+      <c r="R1693" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1694">
       <c r="A1694" s="2" t="n">
@@ -95323,7 +95333,9 @@
       <c r="Q1694" t="n">
         <v>0</v>
       </c>
-      <c r="R1694" t="inlineStr"/>
+      <c r="R1694" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1695">
       <c r="A1695" s="2" t="n">
@@ -95377,7 +95389,9 @@
       <c r="Q1695" t="n">
         <v>0</v>
       </c>
-      <c r="R1695" t="inlineStr"/>
+      <c r="R1695" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1696">
       <c r="A1696" s="2" t="n">
@@ -95431,7 +95445,9 @@
       <c r="Q1696" t="n">
         <v>0</v>
       </c>
-      <c r="R1696" t="inlineStr"/>
+      <c r="R1696" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1697">
       <c r="A1697" s="2" t="n">
@@ -95485,7 +95501,549 @@
       <c r="Q1697" t="n">
         <v>0</v>
       </c>
-      <c r="R1697" t="inlineStr"/>
+      <c r="R1697" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1698">
+      <c r="A1698" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B1698" t="n">
+        <v>241.4499969482422</v>
+      </c>
+      <c r="C1698" t="n">
+        <v>259</v>
+      </c>
+      <c r="D1698" t="n">
+        <v>237.1499938964844</v>
+      </c>
+      <c r="E1698" t="n">
+        <v>251.2400054931641</v>
+      </c>
+      <c r="F1698" t="n">
+        <v>251.2400054931641</v>
+      </c>
+      <c r="G1698" t="n">
+        <v>1767734</v>
+      </c>
+      <c r="H1698" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1698" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1698" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1698" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1698" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1698" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1698" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1698" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1698" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1698" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1698" t="inlineStr"/>
+    </row>
+    <row r="1699">
+      <c r="A1699" s="2" t="n">
+        <v>45496</v>
+      </c>
+      <c r="B1699" t="n">
+        <v>253.5200042724609</v>
+      </c>
+      <c r="C1699" t="n">
+        <v>271.9500122070312</v>
+      </c>
+      <c r="D1699" t="n">
+        <v>244</v>
+      </c>
+      <c r="E1699" t="n">
+        <v>260.0599975585938</v>
+      </c>
+      <c r="F1699" t="n">
+        <v>260.0599975585938</v>
+      </c>
+      <c r="G1699" t="n">
+        <v>2972864</v>
+      </c>
+      <c r="H1699" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1699" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1699" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1699" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1699" t="inlineStr"/>
+    </row>
+    <row r="1700">
+      <c r="A1700" s="2" t="n">
+        <v>45497</v>
+      </c>
+      <c r="B1700" t="n">
+        <v>263</v>
+      </c>
+      <c r="C1700" t="n">
+        <v>312.0700073242188</v>
+      </c>
+      <c r="D1700" t="n">
+        <v>262.989990234375</v>
+      </c>
+      <c r="E1700" t="n">
+        <v>311.1000061035156</v>
+      </c>
+      <c r="F1700" t="n">
+        <v>311.1000061035156</v>
+      </c>
+      <c r="G1700" t="n">
+        <v>10263326</v>
+      </c>
+      <c r="H1700" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1700" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1700" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1700" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1700" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1700" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1700" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1700" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1700" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1700" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1700" t="inlineStr"/>
+    </row>
+    <row r="1701">
+      <c r="A1701" s="2" t="n">
+        <v>45498</v>
+      </c>
+      <c r="B1701" t="n">
+        <v>308</v>
+      </c>
+      <c r="C1701" t="n">
+        <v>324</v>
+      </c>
+      <c r="D1701" t="n">
+        <v>288.0499877929688</v>
+      </c>
+      <c r="E1701" t="n">
+        <v>292.6799926757812</v>
+      </c>
+      <c r="F1701" t="n">
+        <v>292.6799926757812</v>
+      </c>
+      <c r="G1701" t="n">
+        <v>3472319</v>
+      </c>
+      <c r="H1701" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1701" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1701" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1701" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1701" t="inlineStr"/>
+    </row>
+    <row r="1702">
+      <c r="A1702" s="2" t="n">
+        <v>45499</v>
+      </c>
+      <c r="B1702" t="n">
+        <v>295.8999938964844</v>
+      </c>
+      <c r="C1702" t="n">
+        <v>302.3500061035156</v>
+      </c>
+      <c r="D1702" t="n">
+        <v>287</v>
+      </c>
+      <c r="E1702" t="n">
+        <v>289.6700134277344</v>
+      </c>
+      <c r="F1702" t="n">
+        <v>289.6700134277344</v>
+      </c>
+      <c r="G1702" t="n">
+        <v>711021</v>
+      </c>
+      <c r="H1702" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1702" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1702" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1702" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1702" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1702" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1702" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1702" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1702" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1702" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1702" t="inlineStr"/>
+    </row>
+    <row r="1703">
+      <c r="A1703" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B1703" t="n">
+        <v>292.9800109863281</v>
+      </c>
+      <c r="C1703" t="n">
+        <v>294.3999938964844</v>
+      </c>
+      <c r="D1703" t="n">
+        <v>280.2000122070312</v>
+      </c>
+      <c r="E1703" t="n">
+        <v>282.739990234375</v>
+      </c>
+      <c r="F1703" t="n">
+        <v>282.739990234375</v>
+      </c>
+      <c r="G1703" t="n">
+        <v>804924</v>
+      </c>
+      <c r="H1703" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1703" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1703" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1703" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1703" t="inlineStr"/>
+    </row>
+    <row r="1704">
+      <c r="A1704" s="2" t="n">
+        <v>45503</v>
+      </c>
+      <c r="B1704" t="n">
+        <v>282.6000061035156</v>
+      </c>
+      <c r="C1704" t="n">
+        <v>289.9500122070312</v>
+      </c>
+      <c r="D1704" t="n">
+        <v>278.0400085449219</v>
+      </c>
+      <c r="E1704" t="n">
+        <v>281.989990234375</v>
+      </c>
+      <c r="F1704" t="n">
+        <v>281.989990234375</v>
+      </c>
+      <c r="G1704" t="n">
+        <v>403997</v>
+      </c>
+      <c r="H1704" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1704" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1704" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1704" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1704" t="inlineStr"/>
+    </row>
+    <row r="1705">
+      <c r="A1705" s="2" t="n">
+        <v>45504</v>
+      </c>
+      <c r="B1705" t="n">
+        <v>282.9599914550781</v>
+      </c>
+      <c r="C1705" t="n">
+        <v>282.9599914550781</v>
+      </c>
+      <c r="D1705" t="n">
+        <v>274</v>
+      </c>
+      <c r="E1705" t="n">
+        <v>275.1000061035156</v>
+      </c>
+      <c r="F1705" t="n">
+        <v>275.1000061035156</v>
+      </c>
+      <c r="G1705" t="n">
+        <v>217531</v>
+      </c>
+      <c r="H1705" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1705" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1705" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1705" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1705" t="inlineStr"/>
+    </row>
+    <row r="1706">
+      <c r="A1706" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B1706" t="n">
+        <v>275.2000122070312</v>
+      </c>
+      <c r="C1706" t="n">
+        <v>298</v>
+      </c>
+      <c r="D1706" t="n">
+        <v>275.2000122070312</v>
+      </c>
+      <c r="E1706" t="n">
+        <v>292.8500061035156</v>
+      </c>
+      <c r="F1706" t="n">
+        <v>292.8500061035156</v>
+      </c>
+      <c r="G1706" t="n">
+        <v>1017878</v>
+      </c>
+      <c r="H1706" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1706" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1706" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1706" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1706" t="inlineStr"/>
+    </row>
+    <row r="1707">
+      <c r="A1707" s="2" t="n">
+        <v>45506</v>
+      </c>
+      <c r="B1707" t="n">
+        <v>286.2999877929688</v>
+      </c>
+      <c r="C1707" t="n">
+        <v>291.2999877929688</v>
+      </c>
+      <c r="D1707" t="n">
+        <v>281.8999938964844</v>
+      </c>
+      <c r="E1707" t="n">
+        <v>284.2000122070312</v>
+      </c>
+      <c r="F1707" t="n">
+        <v>284.2000122070312</v>
+      </c>
+      <c r="G1707" t="n">
+        <v>253588</v>
+      </c>
+      <c r="H1707" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1707" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1707" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1707" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1707" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1707" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1707" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1707" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1707" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1707" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1707" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/APEX.NS.xlsx
+++ b/stock_historical_data/1d/APEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1707"/>
+  <dimension ref="A1:R1712"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95557,7 +95557,9 @@
       <c r="Q1698" t="n">
         <v>0</v>
       </c>
-      <c r="R1698" t="inlineStr"/>
+      <c r="R1698" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1699">
       <c r="A1699" s="2" t="n">
@@ -95611,7 +95613,9 @@
       <c r="Q1699" t="n">
         <v>0</v>
       </c>
-      <c r="R1699" t="inlineStr"/>
+      <c r="R1699" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1700">
       <c r="A1700" s="2" t="n">
@@ -95665,7 +95669,9 @@
       <c r="Q1700" t="n">
         <v>0</v>
       </c>
-      <c r="R1700" t="inlineStr"/>
+      <c r="R1700" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1701">
       <c r="A1701" s="2" t="n">
@@ -95711,7 +95717,7 @@
         <v>30</v>
       </c>
       <c r="O1701" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1701" t="n">
         <v>0</v>
@@ -95719,7 +95725,9 @@
       <c r="Q1701" t="n">
         <v>0</v>
       </c>
-      <c r="R1701" t="inlineStr"/>
+      <c r="R1701" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1702">
       <c r="A1702" s="2" t="n">
@@ -95773,7 +95781,9 @@
       <c r="Q1702" t="n">
         <v>0</v>
       </c>
-      <c r="R1702" t="inlineStr"/>
+      <c r="R1702" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1703">
       <c r="A1703" s="2" t="n">
@@ -95827,7 +95837,9 @@
       <c r="Q1703" t="n">
         <v>0</v>
       </c>
-      <c r="R1703" t="inlineStr"/>
+      <c r="R1703" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1704">
       <c r="A1704" s="2" t="n">
@@ -95881,7 +95893,9 @@
       <c r="Q1704" t="n">
         <v>0</v>
       </c>
-      <c r="R1704" t="inlineStr"/>
+      <c r="R1704" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1705">
       <c r="A1705" s="2" t="n">
@@ -95935,7 +95949,9 @@
       <c r="Q1705" t="n">
         <v>0</v>
       </c>
-      <c r="R1705" t="inlineStr"/>
+      <c r="R1705" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1706">
       <c r="A1706" s="2" t="n">
@@ -95989,7 +96005,9 @@
       <c r="Q1706" t="n">
         <v>0</v>
       </c>
-      <c r="R1706" t="inlineStr"/>
+      <c r="R1706" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1707">
       <c r="A1707" s="2" t="n">
@@ -96043,7 +96061,279 @@
       <c r="Q1707" t="n">
         <v>0</v>
       </c>
-      <c r="R1707" t="inlineStr"/>
+      <c r="R1707" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1708">
+      <c r="A1708" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B1708" t="n">
+        <v>275</v>
+      </c>
+      <c r="C1708" t="n">
+        <v>278.6499938964844</v>
+      </c>
+      <c r="D1708" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="E1708" t="n">
+        <v>270.4500122070312</v>
+      </c>
+      <c r="F1708" t="n">
+        <v>270.4500122070312</v>
+      </c>
+      <c r="G1708" t="n">
+        <v>444867</v>
+      </c>
+      <c r="H1708" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1708" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1708" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1708" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1708" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1708" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1708" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1708" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1708" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1708" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1708" t="inlineStr"/>
+    </row>
+    <row r="1709">
+      <c r="A1709" s="2" t="n">
+        <v>45510</v>
+      </c>
+      <c r="B1709" t="n">
+        <v>274</v>
+      </c>
+      <c r="C1709" t="n">
+        <v>278.4500122070312</v>
+      </c>
+      <c r="D1709" t="n">
+        <v>263.25</v>
+      </c>
+      <c r="E1709" t="n">
+        <v>264.8500061035156</v>
+      </c>
+      <c r="F1709" t="n">
+        <v>264.8500061035156</v>
+      </c>
+      <c r="G1709" t="n">
+        <v>277892</v>
+      </c>
+      <c r="H1709" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1709" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1709" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1709" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1709" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1709" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1709" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1709" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1709" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1709" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1709" t="inlineStr"/>
+    </row>
+    <row r="1710">
+      <c r="A1710" s="2" t="n">
+        <v>45511</v>
+      </c>
+      <c r="B1710" t="n">
+        <v>269.6000061035156</v>
+      </c>
+      <c r="C1710" t="n">
+        <v>281</v>
+      </c>
+      <c r="D1710" t="n">
+        <v>265.7000122070312</v>
+      </c>
+      <c r="E1710" t="n">
+        <v>278</v>
+      </c>
+      <c r="F1710" t="n">
+        <v>278</v>
+      </c>
+      <c r="G1710" t="n">
+        <v>597156</v>
+      </c>
+      <c r="H1710" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1710" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1710" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1710" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1710" t="inlineStr"/>
+    </row>
+    <row r="1711">
+      <c r="A1711" s="2" t="n">
+        <v>45512</v>
+      </c>
+      <c r="B1711" t="n">
+        <v>275.5</v>
+      </c>
+      <c r="C1711" t="n">
+        <v>279.8500061035156</v>
+      </c>
+      <c r="D1711" t="n">
+        <v>271.2999877929688</v>
+      </c>
+      <c r="E1711" t="n">
+        <v>272.5499877929688</v>
+      </c>
+      <c r="F1711" t="n">
+        <v>272.5499877929688</v>
+      </c>
+      <c r="G1711" t="n">
+        <v>254208</v>
+      </c>
+      <c r="H1711" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1711" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1711" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1711" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1711" t="inlineStr"/>
+    </row>
+    <row r="1712">
+      <c r="A1712" s="2" t="n">
+        <v>45513</v>
+      </c>
+      <c r="B1712" t="n">
+        <v>274.4500122070312</v>
+      </c>
+      <c r="C1712" t="n">
+        <v>292</v>
+      </c>
+      <c r="D1712" t="n">
+        <v>273.5</v>
+      </c>
+      <c r="E1712" t="n">
+        <v>283.9500122070312</v>
+      </c>
+      <c r="F1712" t="n">
+        <v>283.9500122070312</v>
+      </c>
+      <c r="G1712" t="n">
+        <v>1074777</v>
+      </c>
+      <c r="H1712" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1712" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1712" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1712" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1712" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/APEX.NS.xlsx
+++ b/stock_historical_data/1d/APEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1712"/>
+  <dimension ref="A1:R1716"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96117,7 +96117,9 @@
       <c r="Q1708" t="n">
         <v>0</v>
       </c>
-      <c r="R1708" t="inlineStr"/>
+      <c r="R1708" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1709">
       <c r="A1709" s="2" t="n">
@@ -96171,7 +96173,9 @@
       <c r="Q1709" t="n">
         <v>0</v>
       </c>
-      <c r="R1709" t="inlineStr"/>
+      <c r="R1709" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1710">
       <c r="A1710" s="2" t="n">
@@ -96225,7 +96229,9 @@
       <c r="Q1710" t="n">
         <v>0</v>
       </c>
-      <c r="R1710" t="inlineStr"/>
+      <c r="R1710" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1711">
       <c r="A1711" s="2" t="n">
@@ -96279,7 +96285,9 @@
       <c r="Q1711" t="n">
         <v>0</v>
       </c>
-      <c r="R1711" t="inlineStr"/>
+      <c r="R1711" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1712">
       <c r="A1712" s="2" t="n">
@@ -96333,7 +96341,225 @@
       <c r="Q1712" t="n">
         <v>0</v>
       </c>
-      <c r="R1712" t="inlineStr"/>
+      <c r="R1712" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1713">
+      <c r="A1713" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B1713" t="n">
+        <v>277</v>
+      </c>
+      <c r="C1713" t="n">
+        <v>282.8999938964844</v>
+      </c>
+      <c r="D1713" t="n">
+        <v>272.2000122070312</v>
+      </c>
+      <c r="E1713" t="n">
+        <v>275.1000061035156</v>
+      </c>
+      <c r="F1713" t="n">
+        <v>275.1000061035156</v>
+      </c>
+      <c r="G1713" t="n">
+        <v>325455</v>
+      </c>
+      <c r="H1713" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1713" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1713" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1713" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1713" t="inlineStr"/>
+    </row>
+    <row r="1714">
+      <c r="A1714" s="2" t="n">
+        <v>45517</v>
+      </c>
+      <c r="B1714" t="n">
+        <v>274.2000122070312</v>
+      </c>
+      <c r="C1714" t="n">
+        <v>274.9500122070312</v>
+      </c>
+      <c r="D1714" t="n">
+        <v>263.9500122070312</v>
+      </c>
+      <c r="E1714" t="n">
+        <v>264.8999938964844</v>
+      </c>
+      <c r="F1714" t="n">
+        <v>264.8999938964844</v>
+      </c>
+      <c r="G1714" t="n">
+        <v>227627</v>
+      </c>
+      <c r="H1714" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1714" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1714" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1714" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1714" t="inlineStr"/>
+    </row>
+    <row r="1715">
+      <c r="A1715" s="2" t="n">
+        <v>45518</v>
+      </c>
+      <c r="B1715" t="n">
+        <v>265.9500122070312</v>
+      </c>
+      <c r="C1715" t="n">
+        <v>271.5</v>
+      </c>
+      <c r="D1715" t="n">
+        <v>258.2999877929688</v>
+      </c>
+      <c r="E1715" t="n">
+        <v>264.6000061035156</v>
+      </c>
+      <c r="F1715" t="n">
+        <v>264.6000061035156</v>
+      </c>
+      <c r="G1715" t="n">
+        <v>236861</v>
+      </c>
+      <c r="H1715" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1715" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1715" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1715" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1715" t="inlineStr"/>
+    </row>
+    <row r="1716">
+      <c r="A1716" s="2" t="n">
+        <v>45520</v>
+      </c>
+      <c r="B1716" t="n">
+        <v>270</v>
+      </c>
+      <c r="C1716" t="n">
+        <v>272.3999938964844</v>
+      </c>
+      <c r="D1716" t="n">
+        <v>264.5</v>
+      </c>
+      <c r="E1716" t="n">
+        <v>265.2999877929688</v>
+      </c>
+      <c r="F1716" t="n">
+        <v>265.2999877929688</v>
+      </c>
+      <c r="G1716" t="n">
+        <v>108188</v>
+      </c>
+      <c r="H1716" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1716" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1716" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1716" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1716" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/APEX.NS.xlsx
+++ b/stock_historical_data/1d/APEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1716"/>
+  <dimension ref="A1:R1721"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96397,7 +96397,9 @@
       <c r="Q1713" t="n">
         <v>0</v>
       </c>
-      <c r="R1713" t="inlineStr"/>
+      <c r="R1713" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1714">
       <c r="A1714" s="2" t="n">
@@ -96451,7 +96453,9 @@
       <c r="Q1714" t="n">
         <v>0</v>
       </c>
-      <c r="R1714" t="inlineStr"/>
+      <c r="R1714" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1715">
       <c r="A1715" s="2" t="n">
@@ -96505,7 +96509,9 @@
       <c r="Q1715" t="n">
         <v>0</v>
       </c>
-      <c r="R1715" t="inlineStr"/>
+      <c r="R1715" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1716">
       <c r="A1716" s="2" t="n">
@@ -96559,7 +96565,279 @@
       <c r="Q1716" t="n">
         <v>0</v>
       </c>
-      <c r="R1716" t="inlineStr"/>
+      <c r="R1716" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1717">
+      <c r="A1717" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B1717" t="n">
+        <v>267.75</v>
+      </c>
+      <c r="C1717" t="n">
+        <v>277</v>
+      </c>
+      <c r="D1717" t="n">
+        <v>267.0499877929688</v>
+      </c>
+      <c r="E1717" t="n">
+        <v>275.8999938964844</v>
+      </c>
+      <c r="F1717" t="n">
+        <v>275.8999938964844</v>
+      </c>
+      <c r="G1717" t="n">
+        <v>177301</v>
+      </c>
+      <c r="H1717" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1717" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1717" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1717" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1717" t="inlineStr"/>
+    </row>
+    <row r="1718">
+      <c r="A1718" s="2" t="n">
+        <v>45524</v>
+      </c>
+      <c r="B1718" t="n">
+        <v>275.8999938964844</v>
+      </c>
+      <c r="C1718" t="n">
+        <v>277.3999938964844</v>
+      </c>
+      <c r="D1718" t="n">
+        <v>269</v>
+      </c>
+      <c r="E1718" t="n">
+        <v>270.0499877929688</v>
+      </c>
+      <c r="F1718" t="n">
+        <v>270.0499877929688</v>
+      </c>
+      <c r="G1718" t="n">
+        <v>93409</v>
+      </c>
+      <c r="H1718" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1718" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1718" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1718" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1718" t="inlineStr"/>
+    </row>
+    <row r="1719">
+      <c r="A1719" s="2" t="n">
+        <v>45525</v>
+      </c>
+      <c r="B1719" t="n">
+        <v>271.2000122070312</v>
+      </c>
+      <c r="C1719" t="n">
+        <v>284</v>
+      </c>
+      <c r="D1719" t="n">
+        <v>270.2000122070312</v>
+      </c>
+      <c r="E1719" t="n">
+        <v>278.0499877929688</v>
+      </c>
+      <c r="F1719" t="n">
+        <v>278.0499877929688</v>
+      </c>
+      <c r="G1719" t="n">
+        <v>343134</v>
+      </c>
+      <c r="H1719" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1719" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1719" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1719" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1719" t="inlineStr"/>
+    </row>
+    <row r="1720">
+      <c r="A1720" s="2" t="n">
+        <v>45526</v>
+      </c>
+      <c r="B1720" t="n">
+        <v>278.0499877929688</v>
+      </c>
+      <c r="C1720" t="n">
+        <v>280.2000122070312</v>
+      </c>
+      <c r="D1720" t="n">
+        <v>273.0499877929688</v>
+      </c>
+      <c r="E1720" t="n">
+        <v>274.0499877929688</v>
+      </c>
+      <c r="F1720" t="n">
+        <v>274.0499877929688</v>
+      </c>
+      <c r="G1720" t="n">
+        <v>115238</v>
+      </c>
+      <c r="H1720" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1720" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1720" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1720" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1720" t="inlineStr"/>
+    </row>
+    <row r="1721">
+      <c r="A1721" s="2" t="n">
+        <v>45527</v>
+      </c>
+      <c r="B1721" t="n">
+        <v>274.0499877929688</v>
+      </c>
+      <c r="C1721" t="n">
+        <v>278</v>
+      </c>
+      <c r="D1721" t="n">
+        <v>269.3500061035156</v>
+      </c>
+      <c r="E1721" t="n">
+        <v>272.3500061035156</v>
+      </c>
+      <c r="F1721" t="n">
+        <v>272.3500061035156</v>
+      </c>
+      <c r="G1721" t="n">
+        <v>131404</v>
+      </c>
+      <c r="H1721" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1721" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1721" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1721" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1721" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/APEX.NS.xlsx
+++ b/stock_historical_data/1d/APEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1721"/>
+  <dimension ref="A1:R1726"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96621,7 +96621,9 @@
       <c r="Q1717" t="n">
         <v>0</v>
       </c>
-      <c r="R1717" t="inlineStr"/>
+      <c r="R1717" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1718">
       <c r="A1718" s="2" t="n">
@@ -96675,7 +96677,9 @@
       <c r="Q1718" t="n">
         <v>0</v>
       </c>
-      <c r="R1718" t="inlineStr"/>
+      <c r="R1718" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1719">
       <c r="A1719" s="2" t="n">
@@ -96729,7 +96733,9 @@
       <c r="Q1719" t="n">
         <v>0</v>
       </c>
-      <c r="R1719" t="inlineStr"/>
+      <c r="R1719" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1720">
       <c r="A1720" s="2" t="n">
@@ -96783,7 +96789,9 @@
       <c r="Q1720" t="n">
         <v>0</v>
       </c>
-      <c r="R1720" t="inlineStr"/>
+      <c r="R1720" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1721">
       <c r="A1721" s="2" t="n">
@@ -96837,7 +96845,279 @@
       <c r="Q1721" t="n">
         <v>0</v>
       </c>
-      <c r="R1721" t="inlineStr"/>
+      <c r="R1721" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1722">
+      <c r="A1722" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B1722" t="n">
+        <v>274.2999877929688</v>
+      </c>
+      <c r="C1722" t="n">
+        <v>286</v>
+      </c>
+      <c r="D1722" t="n">
+        <v>265.9500122070312</v>
+      </c>
+      <c r="E1722" t="n">
+        <v>276.7999877929688</v>
+      </c>
+      <c r="F1722" t="n">
+        <v>276.7999877929688</v>
+      </c>
+      <c r="G1722" t="n">
+        <v>484823</v>
+      </c>
+      <c r="H1722" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1722" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1722" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1722" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1722" t="inlineStr"/>
+    </row>
+    <row r="1723">
+      <c r="A1723" s="2" t="n">
+        <v>45531</v>
+      </c>
+      <c r="B1723" t="n">
+        <v>277.7999877929688</v>
+      </c>
+      <c r="C1723" t="n">
+        <v>278.8999938964844</v>
+      </c>
+      <c r="D1723" t="n">
+        <v>271.7999877929688</v>
+      </c>
+      <c r="E1723" t="n">
+        <v>273.7999877929688</v>
+      </c>
+      <c r="F1723" t="n">
+        <v>273.7999877929688</v>
+      </c>
+      <c r="G1723" t="n">
+        <v>155072</v>
+      </c>
+      <c r="H1723" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1723" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1723" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1723" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1723" t="inlineStr"/>
+    </row>
+    <row r="1724">
+      <c r="A1724" s="2" t="n">
+        <v>45532</v>
+      </c>
+      <c r="B1724" t="n">
+        <v>273.7999877929688</v>
+      </c>
+      <c r="C1724" t="n">
+        <v>276.4500122070312</v>
+      </c>
+      <c r="D1724" t="n">
+        <v>265</v>
+      </c>
+      <c r="E1724" t="n">
+        <v>266.3999938964844</v>
+      </c>
+      <c r="F1724" t="n">
+        <v>266.3999938964844</v>
+      </c>
+      <c r="G1724" t="n">
+        <v>206062</v>
+      </c>
+      <c r="H1724" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1724" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1724" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1724" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1724" t="inlineStr"/>
+    </row>
+    <row r="1725">
+      <c r="A1725" s="2" t="n">
+        <v>45533</v>
+      </c>
+      <c r="B1725" t="n">
+        <v>267.3999938964844</v>
+      </c>
+      <c r="C1725" t="n">
+        <v>268.6499938964844</v>
+      </c>
+      <c r="D1725" t="n">
+        <v>256.25</v>
+      </c>
+      <c r="E1725" t="n">
+        <v>259.0499877929688</v>
+      </c>
+      <c r="F1725" t="n">
+        <v>259.0499877929688</v>
+      </c>
+      <c r="G1725" t="n">
+        <v>233019</v>
+      </c>
+      <c r="H1725" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1725" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1725" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1725" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1725" t="inlineStr"/>
+    </row>
+    <row r="1726">
+      <c r="A1726" s="2" t="n">
+        <v>45534</v>
+      </c>
+      <c r="B1726" t="n">
+        <v>261.8999938964844</v>
+      </c>
+      <c r="C1726" t="n">
+        <v>264.7000122070312</v>
+      </c>
+      <c r="D1726" t="n">
+        <v>258</v>
+      </c>
+      <c r="E1726" t="n">
+        <v>259.5</v>
+      </c>
+      <c r="F1726" t="n">
+        <v>259.5</v>
+      </c>
+      <c r="G1726" t="n">
+        <v>119392</v>
+      </c>
+      <c r="H1726" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1726" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1726" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1726" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1726" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/APEX.NS.xlsx
+++ b/stock_historical_data/1d/APEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1726"/>
+  <dimension ref="A1:R1731"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96901,7 +96901,9 @@
       <c r="Q1722" t="n">
         <v>0</v>
       </c>
-      <c r="R1722" t="inlineStr"/>
+      <c r="R1722" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1723">
       <c r="A1723" s="2" t="n">
@@ -96955,7 +96957,9 @@
       <c r="Q1723" t="n">
         <v>0</v>
       </c>
-      <c r="R1723" t="inlineStr"/>
+      <c r="R1723" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1724">
       <c r="A1724" s="2" t="n">
@@ -97009,7 +97013,9 @@
       <c r="Q1724" t="n">
         <v>0</v>
       </c>
-      <c r="R1724" t="inlineStr"/>
+      <c r="R1724" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1725">
       <c r="A1725" s="2" t="n">
@@ -97063,7 +97069,9 @@
       <c r="Q1725" t="n">
         <v>0</v>
       </c>
-      <c r="R1725" t="inlineStr"/>
+      <c r="R1725" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1726">
       <c r="A1726" s="2" t="n">
@@ -97117,7 +97125,279 @@
       <c r="Q1726" t="n">
         <v>0</v>
       </c>
-      <c r="R1726" t="inlineStr"/>
+      <c r="R1726" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1727">
+      <c r="A1727" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B1727" t="n">
+        <v>259.6499938964844</v>
+      </c>
+      <c r="C1727" t="n">
+        <v>266</v>
+      </c>
+      <c r="D1727" t="n">
+        <v>258.0499877929688</v>
+      </c>
+      <c r="E1727" t="n">
+        <v>260.8500061035156</v>
+      </c>
+      <c r="F1727" t="n">
+        <v>260.8500061035156</v>
+      </c>
+      <c r="G1727" t="n">
+        <v>138781</v>
+      </c>
+      <c r="H1727" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1727" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1727" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1727" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1727" t="inlineStr"/>
+    </row>
+    <row r="1728">
+      <c r="A1728" s="2" t="n">
+        <v>45538</v>
+      </c>
+      <c r="B1728" t="n">
+        <v>261.7999877929688</v>
+      </c>
+      <c r="C1728" t="n">
+        <v>263.5</v>
+      </c>
+      <c r="D1728" t="n">
+        <v>258</v>
+      </c>
+      <c r="E1728" t="n">
+        <v>260.2000122070312</v>
+      </c>
+      <c r="F1728" t="n">
+        <v>260.2000122070312</v>
+      </c>
+      <c r="G1728" t="n">
+        <v>116262</v>
+      </c>
+      <c r="H1728" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1728" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1728" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1728" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1728" t="inlineStr"/>
+    </row>
+    <row r="1729">
+      <c r="A1729" s="2" t="n">
+        <v>45539</v>
+      </c>
+      <c r="B1729" t="n">
+        <v>257</v>
+      </c>
+      <c r="C1729" t="n">
+        <v>268.7999877929688</v>
+      </c>
+      <c r="D1729" t="n">
+        <v>256.9500122070312</v>
+      </c>
+      <c r="E1729" t="n">
+        <v>264.3999938964844</v>
+      </c>
+      <c r="F1729" t="n">
+        <v>264.3999938964844</v>
+      </c>
+      <c r="G1729" t="n">
+        <v>185923</v>
+      </c>
+      <c r="H1729" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1729" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1729" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1729" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1729" t="inlineStr"/>
+    </row>
+    <row r="1730">
+      <c r="A1730" s="2" t="n">
+        <v>45540</v>
+      </c>
+      <c r="B1730" t="n">
+        <v>265.7999877929688</v>
+      </c>
+      <c r="C1730" t="n">
+        <v>268.8999938964844</v>
+      </c>
+      <c r="D1730" t="n">
+        <v>264.2000122070312</v>
+      </c>
+      <c r="E1730" t="n">
+        <v>266.1499938964844</v>
+      </c>
+      <c r="F1730" t="n">
+        <v>266.1499938964844</v>
+      </c>
+      <c r="G1730" t="n">
+        <v>117651</v>
+      </c>
+      <c r="H1730" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1730" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1730" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1730" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1730" t="inlineStr"/>
+    </row>
+    <row r="1731">
+      <c r="A1731" s="2" t="n">
+        <v>45541</v>
+      </c>
+      <c r="B1731" t="n">
+        <v>267</v>
+      </c>
+      <c r="C1731" t="n">
+        <v>267.5499877929688</v>
+      </c>
+      <c r="D1731" t="n">
+        <v>260.0499877929688</v>
+      </c>
+      <c r="E1731" t="n">
+        <v>261.3500061035156</v>
+      </c>
+      <c r="F1731" t="n">
+        <v>261.3500061035156</v>
+      </c>
+      <c r="G1731" t="n">
+        <v>98589</v>
+      </c>
+      <c r="H1731" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1731" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1731" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1731" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1731" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/APEX.NS.xlsx
+++ b/stock_historical_data/1d/APEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1731"/>
+  <dimension ref="A1:R1736"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -97181,7 +97181,9 @@
       <c r="Q1727" t="n">
         <v>0</v>
       </c>
-      <c r="R1727" t="inlineStr"/>
+      <c r="R1727" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1728">
       <c r="A1728" s="2" t="n">
@@ -97235,7 +97237,9 @@
       <c r="Q1728" t="n">
         <v>0</v>
       </c>
-      <c r="R1728" t="inlineStr"/>
+      <c r="R1728" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1729">
       <c r="A1729" s="2" t="n">
@@ -97289,7 +97293,9 @@
       <c r="Q1729" t="n">
         <v>0</v>
       </c>
-      <c r="R1729" t="inlineStr"/>
+      <c r="R1729" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1730">
       <c r="A1730" s="2" t="n">
@@ -97343,7 +97349,9 @@
       <c r="Q1730" t="n">
         <v>0</v>
       </c>
-      <c r="R1730" t="inlineStr"/>
+      <c r="R1730" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1731">
       <c r="A1731" s="2" t="n">
@@ -97397,7 +97405,279 @@
       <c r="Q1731" t="n">
         <v>0</v>
       </c>
-      <c r="R1731" t="inlineStr"/>
+      <c r="R1731" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1732">
+      <c r="A1732" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B1732" t="n">
+        <v>258.6499938964844</v>
+      </c>
+      <c r="C1732" t="n">
+        <v>262.1499938964844</v>
+      </c>
+      <c r="D1732" t="n">
+        <v>253.1999969482422</v>
+      </c>
+      <c r="E1732" t="n">
+        <v>257.3500061035156</v>
+      </c>
+      <c r="F1732" t="n">
+        <v>257.3500061035156</v>
+      </c>
+      <c r="G1732" t="n">
+        <v>193795</v>
+      </c>
+      <c r="H1732" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1732" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1732" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1732" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1732" t="inlineStr"/>
+    </row>
+    <row r="1733">
+      <c r="A1733" s="2" t="n">
+        <v>45545</v>
+      </c>
+      <c r="B1733" t="n">
+        <v>258</v>
+      </c>
+      <c r="C1733" t="n">
+        <v>263.3500061035156</v>
+      </c>
+      <c r="D1733" t="n">
+        <v>257.6000061035156</v>
+      </c>
+      <c r="E1733" t="n">
+        <v>259.2000122070312</v>
+      </c>
+      <c r="F1733" t="n">
+        <v>259.2000122070312</v>
+      </c>
+      <c r="G1733" t="n">
+        <v>104191</v>
+      </c>
+      <c r="H1733" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1733" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1733" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1733" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1733" t="inlineStr"/>
+    </row>
+    <row r="1734">
+      <c r="A1734" s="2" t="n">
+        <v>45546</v>
+      </c>
+      <c r="B1734" t="n">
+        <v>259.2000122070312</v>
+      </c>
+      <c r="C1734" t="n">
+        <v>261.1000061035156</v>
+      </c>
+      <c r="D1734" t="n">
+        <v>249.9499969482422</v>
+      </c>
+      <c r="E1734" t="n">
+        <v>252.25</v>
+      </c>
+      <c r="F1734" t="n">
+        <v>252.25</v>
+      </c>
+      <c r="G1734" t="n">
+        <v>114243</v>
+      </c>
+      <c r="H1734" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1734" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1734" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1734" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1734" t="inlineStr"/>
+    </row>
+    <row r="1735">
+      <c r="A1735" s="2" t="n">
+        <v>45547</v>
+      </c>
+      <c r="B1735" t="n">
+        <v>254</v>
+      </c>
+      <c r="C1735" t="n">
+        <v>256.7000122070312</v>
+      </c>
+      <c r="D1735" t="n">
+        <v>249.8999938964844</v>
+      </c>
+      <c r="E1735" t="n">
+        <v>252.6999969482422</v>
+      </c>
+      <c r="F1735" t="n">
+        <v>252.6999969482422</v>
+      </c>
+      <c r="G1735" t="n">
+        <v>113833</v>
+      </c>
+      <c r="H1735" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1735" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1735" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1735" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1735" t="inlineStr"/>
+    </row>
+    <row r="1736">
+      <c r="A1736" s="2" t="n">
+        <v>45548</v>
+      </c>
+      <c r="B1736" t="n">
+        <v>252.9499969482422</v>
+      </c>
+      <c r="C1736" t="n">
+        <v>255.9499969482422</v>
+      </c>
+      <c r="D1736" t="n">
+        <v>252.1000061035156</v>
+      </c>
+      <c r="E1736" t="n">
+        <v>253.3000030517578</v>
+      </c>
+      <c r="F1736" t="n">
+        <v>253.3000030517578</v>
+      </c>
+      <c r="G1736" t="n">
+        <v>122250</v>
+      </c>
+      <c r="H1736" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1736" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1736" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1736" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1736" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/APEX.NS.xlsx
+++ b/stock_historical_data/1d/APEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1736"/>
+  <dimension ref="A1:R1741"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -97461,7 +97461,9 @@
       <c r="Q1732" t="n">
         <v>0</v>
       </c>
-      <c r="R1732" t="inlineStr"/>
+      <c r="R1732" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1733">
       <c r="A1733" s="2" t="n">
@@ -97515,7 +97517,9 @@
       <c r="Q1733" t="n">
         <v>0</v>
       </c>
-      <c r="R1733" t="inlineStr"/>
+      <c r="R1733" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1734">
       <c r="A1734" s="2" t="n">
@@ -97569,7 +97573,9 @@
       <c r="Q1734" t="n">
         <v>0</v>
       </c>
-      <c r="R1734" t="inlineStr"/>
+      <c r="R1734" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1735">
       <c r="A1735" s="2" t="n">
@@ -97623,7 +97629,9 @@
       <c r="Q1735" t="n">
         <v>0</v>
       </c>
-      <c r="R1735" t="inlineStr"/>
+      <c r="R1735" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1736">
       <c r="A1736" s="2" t="n">
@@ -97677,7 +97685,279 @@
       <c r="Q1736" t="n">
         <v>0</v>
       </c>
-      <c r="R1736" t="inlineStr"/>
+      <c r="R1736" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1737">
+      <c r="A1737" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B1737" t="n">
+        <v>254.6000061035156</v>
+      </c>
+      <c r="C1737" t="n">
+        <v>256.6000061035156</v>
+      </c>
+      <c r="D1737" t="n">
+        <v>248.5</v>
+      </c>
+      <c r="E1737" t="n">
+        <v>254.1000061035156</v>
+      </c>
+      <c r="F1737" t="n">
+        <v>252.0508117675781</v>
+      </c>
+      <c r="G1737" t="n">
+        <v>167025</v>
+      </c>
+      <c r="H1737" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1737" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1737" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1737" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1737" t="inlineStr"/>
+    </row>
+    <row r="1738">
+      <c r="A1738" s="2" t="n">
+        <v>45552</v>
+      </c>
+      <c r="B1738" t="n">
+        <v>254.75</v>
+      </c>
+      <c r="C1738" t="n">
+        <v>261.9500122070312</v>
+      </c>
+      <c r="D1738" t="n">
+        <v>252.1000061035156</v>
+      </c>
+      <c r="E1738" t="n">
+        <v>256.25</v>
+      </c>
+      <c r="F1738" t="n">
+        <v>254.1834716796875</v>
+      </c>
+      <c r="G1738" t="n">
+        <v>299444</v>
+      </c>
+      <c r="H1738" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1738" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1738" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1738" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1738" t="inlineStr"/>
+    </row>
+    <row r="1739">
+      <c r="A1739" s="2" t="n">
+        <v>45553</v>
+      </c>
+      <c r="B1739" t="n">
+        <v>256.25</v>
+      </c>
+      <c r="C1739" t="n">
+        <v>256.3999938964844</v>
+      </c>
+      <c r="D1739" t="n">
+        <v>250</v>
+      </c>
+      <c r="E1739" t="n">
+        <v>250.6499938964844</v>
+      </c>
+      <c r="F1739" t="n">
+        <v>248.6286315917969</v>
+      </c>
+      <c r="G1739" t="n">
+        <v>82569</v>
+      </c>
+      <c r="H1739" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1739" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1739" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1739" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1739" t="inlineStr"/>
+    </row>
+    <row r="1740">
+      <c r="A1740" s="2" t="n">
+        <v>45554</v>
+      </c>
+      <c r="B1740" t="n">
+        <v>251.9499969482422</v>
+      </c>
+      <c r="C1740" t="n">
+        <v>253.5</v>
+      </c>
+      <c r="D1740" t="n">
+        <v>243.6000061035156</v>
+      </c>
+      <c r="E1740" t="n">
+        <v>248</v>
+      </c>
+      <c r="F1740" t="n">
+        <v>246</v>
+      </c>
+      <c r="G1740" t="n">
+        <v>94969</v>
+      </c>
+      <c r="H1740" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1740" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1740" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1740" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1740" t="inlineStr"/>
+    </row>
+    <row r="1741">
+      <c r="A1741" s="2" t="n">
+        <v>45555</v>
+      </c>
+      <c r="B1741" t="n">
+        <v>249</v>
+      </c>
+      <c r="C1741" t="n">
+        <v>252.3500061035156</v>
+      </c>
+      <c r="D1741" t="n">
+        <v>244</v>
+      </c>
+      <c r="E1741" t="n">
+        <v>251.4499969482422</v>
+      </c>
+      <c r="F1741" t="n">
+        <v>251.4499969482422</v>
+      </c>
+      <c r="G1741" t="n">
+        <v>142503</v>
+      </c>
+      <c r="H1741" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1741" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1741" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1741" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1741" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/APEX.NS.xlsx
+++ b/stock_historical_data/1d/APEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1741"/>
+  <dimension ref="A1:R1746"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9430,7 +9430,7 @@
         <v>2</v>
       </c>
       <c r="R160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161">
@@ -14134,7 +14134,7 @@
         <v>2</v>
       </c>
       <c r="R244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245">
@@ -16654,7 +16654,7 @@
         <v>2</v>
       </c>
       <c r="R289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290">
@@ -17046,7 +17046,7 @@
         <v>0</v>
       </c>
       <c r="R296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297">
@@ -17326,7 +17326,7 @@
         <v>2</v>
       </c>
       <c r="R301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302">
@@ -19062,7 +19062,7 @@
         <v>2</v>
       </c>
       <c r="R332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333">
@@ -20126,7 +20126,7 @@
         <v>2</v>
       </c>
       <c r="R351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352">
@@ -24942,7 +24942,7 @@
         <v>2</v>
       </c>
       <c r="R437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438">
@@ -28302,7 +28302,7 @@
         <v>1</v>
       </c>
       <c r="R497" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498">
@@ -29478,7 +29478,7 @@
         <v>2</v>
       </c>
       <c r="R518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="519">
@@ -30374,7 +30374,7 @@
         <v>2</v>
       </c>
       <c r="R534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="535">
@@ -44766,7 +44766,7 @@
         <v>1</v>
       </c>
       <c r="R791" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="792">
@@ -46782,7 +46782,7 @@
         <v>1</v>
       </c>
       <c r="R827" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="828">
@@ -58598,7 +58598,7 @@
         <v>0</v>
       </c>
       <c r="R1038" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1039">
@@ -59886,7 +59886,7 @@
         <v>0</v>
       </c>
       <c r="R1061" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1062">
@@ -61454,7 +61454,7 @@
         <v>2</v>
       </c>
       <c r="R1089" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1090">
@@ -61958,7 +61958,7 @@
         <v>1</v>
       </c>
       <c r="R1098" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1099">
@@ -70022,7 +70022,7 @@
         <v>0</v>
       </c>
       <c r="R1242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1243">
@@ -72430,7 +72430,7 @@
         <v>2</v>
       </c>
       <c r="R1285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1286">
@@ -73998,7 +73998,7 @@
         <v>2</v>
       </c>
       <c r="R1313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1314">
@@ -77022,7 +77022,7 @@
         <v>1</v>
       </c>
       <c r="R1367" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1368">
@@ -78310,7 +78310,7 @@
         <v>1</v>
       </c>
       <c r="R1390" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1391">
@@ -79318,7 +79318,7 @@
         <v>1</v>
       </c>
       <c r="R1408" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1409">
@@ -80550,7 +80550,7 @@
         <v>0</v>
       </c>
       <c r="R1430" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1431">
@@ -82062,7 +82062,7 @@
         <v>0</v>
       </c>
       <c r="R1457" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1458">
@@ -82566,7 +82566,7 @@
         <v>2</v>
       </c>
       <c r="R1466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1467">
@@ -83686,7 +83686,7 @@
         <v>1</v>
       </c>
       <c r="R1486" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1487">
@@ -84302,7 +84302,7 @@
         <v>2</v>
       </c>
       <c r="R1497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1498">
@@ -85646,7 +85646,7 @@
         <v>2</v>
       </c>
       <c r="R1521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1522">
@@ -86206,7 +86206,7 @@
         <v>1</v>
       </c>
       <c r="R1531" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1532">
@@ -89902,7 +89902,7 @@
         <v>0</v>
       </c>
       <c r="R1597" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1598">
@@ -93150,7 +93150,7 @@
         <v>0</v>
       </c>
       <c r="R1655" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1656">
@@ -97741,7 +97741,9 @@
       <c r="Q1737" t="n">
         <v>0</v>
       </c>
-      <c r="R1737" t="inlineStr"/>
+      <c r="R1737" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1738">
       <c r="A1738" s="2" t="n">
@@ -97795,7 +97797,9 @@
       <c r="Q1738" t="n">
         <v>0</v>
       </c>
-      <c r="R1738" t="inlineStr"/>
+      <c r="R1738" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1739">
       <c r="A1739" s="2" t="n">
@@ -97849,7 +97853,9 @@
       <c r="Q1739" t="n">
         <v>0</v>
       </c>
-      <c r="R1739" t="inlineStr"/>
+      <c r="R1739" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1740">
       <c r="A1740" s="2" t="n">
@@ -97903,7 +97909,9 @@
       <c r="Q1740" t="n">
         <v>0</v>
       </c>
-      <c r="R1740" t="inlineStr"/>
+      <c r="R1740" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1741">
       <c r="A1741" s="2" t="n">
@@ -97957,7 +97965,279 @@
       <c r="Q1741" t="n">
         <v>0</v>
       </c>
-      <c r="R1741" t="inlineStr"/>
+      <c r="R1741" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1742">
+      <c r="A1742" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B1742" t="n">
+        <v>251.8500061035156</v>
+      </c>
+      <c r="C1742" t="n">
+        <v>254.5500030517578</v>
+      </c>
+      <c r="D1742" t="n">
+        <v>248.8000030517578</v>
+      </c>
+      <c r="E1742" t="n">
+        <v>251.8000030517578</v>
+      </c>
+      <c r="F1742" t="n">
+        <v>251.8000030517578</v>
+      </c>
+      <c r="G1742" t="n">
+        <v>117141</v>
+      </c>
+      <c r="H1742" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1742" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1742" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1742" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1742" t="inlineStr"/>
+    </row>
+    <row r="1743">
+      <c r="A1743" s="2" t="n">
+        <v>45559</v>
+      </c>
+      <c r="B1743" t="n">
+        <v>251.3000030517578</v>
+      </c>
+      <c r="C1743" t="n">
+        <v>251.6499938964844</v>
+      </c>
+      <c r="D1743" t="n">
+        <v>246.0500030517578</v>
+      </c>
+      <c r="E1743" t="n">
+        <v>246.3500061035156</v>
+      </c>
+      <c r="F1743" t="n">
+        <v>246.3500061035156</v>
+      </c>
+      <c r="G1743" t="n">
+        <v>65630</v>
+      </c>
+      <c r="H1743" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1743" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1743" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1743" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1743" t="inlineStr"/>
+    </row>
+    <row r="1744">
+      <c r="A1744" s="2" t="n">
+        <v>45560</v>
+      </c>
+      <c r="B1744" t="n">
+        <v>246.3000030517578</v>
+      </c>
+      <c r="C1744" t="n">
+        <v>253.9499969482422</v>
+      </c>
+      <c r="D1744" t="n">
+        <v>244.1000061035156</v>
+      </c>
+      <c r="E1744" t="n">
+        <v>252.25</v>
+      </c>
+      <c r="F1744" t="n">
+        <v>252.25</v>
+      </c>
+      <c r="G1744" t="n">
+        <v>125882</v>
+      </c>
+      <c r="H1744" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1744" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1744" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1744" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1744" t="inlineStr"/>
+    </row>
+    <row r="1745">
+      <c r="A1745" s="2" t="n">
+        <v>45561</v>
+      </c>
+      <c r="B1745" t="n">
+        <v>252.25</v>
+      </c>
+      <c r="C1745" t="n">
+        <v>262.25</v>
+      </c>
+      <c r="D1745" t="n">
+        <v>249.1499938964844</v>
+      </c>
+      <c r="E1745" t="n">
+        <v>253.0500030517578</v>
+      </c>
+      <c r="F1745" t="n">
+        <v>253.0500030517578</v>
+      </c>
+      <c r="G1745" t="n">
+        <v>270902</v>
+      </c>
+      <c r="H1745" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1745" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1745" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1745" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1745" t="inlineStr"/>
+    </row>
+    <row r="1746">
+      <c r="A1746" s="2" t="n">
+        <v>45562</v>
+      </c>
+      <c r="B1746" t="n">
+        <v>254</v>
+      </c>
+      <c r="C1746" t="n">
+        <v>255.25</v>
+      </c>
+      <c r="D1746" t="n">
+        <v>248</v>
+      </c>
+      <c r="E1746" t="n">
+        <v>249.6999969482422</v>
+      </c>
+      <c r="F1746" t="n">
+        <v>249.6999969482422</v>
+      </c>
+      <c r="G1746" t="n">
+        <v>109065</v>
+      </c>
+      <c r="H1746" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1746" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1746" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1746" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1746" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/APEX.NS.xlsx
+++ b/stock_historical_data/1d/APEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1746"/>
+  <dimension ref="A1:R1750"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9430,7 +9430,7 @@
         <v>2</v>
       </c>
       <c r="R160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
@@ -14134,7 +14134,7 @@
         <v>2</v>
       </c>
       <c r="R244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245">
@@ -16654,7 +16654,7 @@
         <v>2</v>
       </c>
       <c r="R289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290">
@@ -17046,7 +17046,7 @@
         <v>0</v>
       </c>
       <c r="R296" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297">
@@ -17326,7 +17326,7 @@
         <v>2</v>
       </c>
       <c r="R301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302">
@@ -19062,7 +19062,7 @@
         <v>2</v>
       </c>
       <c r="R332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333">
@@ -20126,7 +20126,7 @@
         <v>2</v>
       </c>
       <c r="R351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352">
@@ -24942,7 +24942,7 @@
         <v>2</v>
       </c>
       <c r="R437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438">
@@ -28302,7 +28302,7 @@
         <v>1</v>
       </c>
       <c r="R497" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498">
@@ -29478,7 +29478,7 @@
         <v>2</v>
       </c>
       <c r="R518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519">
@@ -30374,7 +30374,7 @@
         <v>2</v>
       </c>
       <c r="R534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535">
@@ -44766,7 +44766,7 @@
         <v>1</v>
       </c>
       <c r="R791" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="792">
@@ -46782,7 +46782,7 @@
         <v>1</v>
       </c>
       <c r="R827" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="828">
@@ -58598,7 +58598,7 @@
         <v>0</v>
       </c>
       <c r="R1038" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1039">
@@ -59886,7 +59886,7 @@
         <v>0</v>
       </c>
       <c r="R1061" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1062">
@@ -61454,7 +61454,7 @@
         <v>2</v>
       </c>
       <c r="R1089" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1090">
@@ -61958,7 +61958,7 @@
         <v>1</v>
       </c>
       <c r="R1098" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1099">
@@ -70022,7 +70022,7 @@
         <v>0</v>
       </c>
       <c r="R1242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1243">
@@ -72430,7 +72430,7 @@
         <v>2</v>
       </c>
       <c r="R1285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1286">
@@ -73998,7 +73998,7 @@
         <v>2</v>
       </c>
       <c r="R1313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1314">
@@ -77022,7 +77022,7 @@
         <v>1</v>
       </c>
       <c r="R1367" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1368">
@@ -78310,7 +78310,7 @@
         <v>1</v>
       </c>
       <c r="R1390" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1391">
@@ -79318,7 +79318,7 @@
         <v>1</v>
       </c>
       <c r="R1408" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1409">
@@ -80550,7 +80550,7 @@
         <v>0</v>
       </c>
       <c r="R1430" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1431">
@@ -82062,7 +82062,7 @@
         <v>0</v>
       </c>
       <c r="R1457" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1458">
@@ -82566,7 +82566,7 @@
         <v>2</v>
       </c>
       <c r="R1466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1467">
@@ -83686,7 +83686,7 @@
         <v>1</v>
       </c>
       <c r="R1486" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1487">
@@ -84302,7 +84302,7 @@
         <v>2</v>
       </c>
       <c r="R1497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1498">
@@ -85646,7 +85646,7 @@
         <v>2</v>
       </c>
       <c r="R1521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1522">
@@ -86206,7 +86206,7 @@
         <v>1</v>
       </c>
       <c r="R1531" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1532">
@@ -89902,7 +89902,7 @@
         <v>0</v>
       </c>
       <c r="R1597" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1598">
@@ -93150,7 +93150,7 @@
         <v>0</v>
       </c>
       <c r="R1655" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1656">
@@ -98021,7 +98021,9 @@
       <c r="Q1742" t="n">
         <v>0</v>
       </c>
-      <c r="R1742" t="inlineStr"/>
+      <c r="R1742" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1743">
       <c r="A1743" s="2" t="n">
@@ -98075,7 +98077,9 @@
       <c r="Q1743" t="n">
         <v>0</v>
       </c>
-      <c r="R1743" t="inlineStr"/>
+      <c r="R1743" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1744">
       <c r="A1744" s="2" t="n">
@@ -98129,7 +98133,9 @@
       <c r="Q1744" t="n">
         <v>0</v>
       </c>
-      <c r="R1744" t="inlineStr"/>
+      <c r="R1744" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1745">
       <c r="A1745" s="2" t="n">
@@ -98183,7 +98189,9 @@
       <c r="Q1745" t="n">
         <v>0</v>
       </c>
-      <c r="R1745" t="inlineStr"/>
+      <c r="R1745" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1746">
       <c r="A1746" s="2" t="n">
@@ -98237,7 +98245,225 @@
       <c r="Q1746" t="n">
         <v>0</v>
       </c>
-      <c r="R1746" t="inlineStr"/>
+      <c r="R1746" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1747">
+      <c r="A1747" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B1747" t="n">
+        <v>248.5</v>
+      </c>
+      <c r="C1747" t="n">
+        <v>252</v>
+      </c>
+      <c r="D1747" t="n">
+        <v>247.0500030517578</v>
+      </c>
+      <c r="E1747" t="n">
+        <v>249.1999969482422</v>
+      </c>
+      <c r="F1747" t="n">
+        <v>249.1999969482422</v>
+      </c>
+      <c r="G1747" t="n">
+        <v>66322</v>
+      </c>
+      <c r="H1747" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1747" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1747" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1747" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1747" t="inlineStr"/>
+    </row>
+    <row r="1748">
+      <c r="A1748" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B1748" t="n">
+        <v>249.25</v>
+      </c>
+      <c r="C1748" t="n">
+        <v>251.6499938964844</v>
+      </c>
+      <c r="D1748" t="n">
+        <v>246.5</v>
+      </c>
+      <c r="E1748" t="n">
+        <v>247.5299987792969</v>
+      </c>
+      <c r="F1748" t="n">
+        <v>247.5299987792969</v>
+      </c>
+      <c r="G1748" t="n">
+        <v>58063</v>
+      </c>
+      <c r="H1748" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1748" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1748" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1748" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1748" t="inlineStr"/>
+    </row>
+    <row r="1749">
+      <c r="A1749" s="2" t="n">
+        <v>45568</v>
+      </c>
+      <c r="B1749" t="n">
+        <v>244</v>
+      </c>
+      <c r="C1749" t="n">
+        <v>246.6999969482422</v>
+      </c>
+      <c r="D1749" t="n">
+        <v>234.1000061035156</v>
+      </c>
+      <c r="E1749" t="n">
+        <v>240.7799987792969</v>
+      </c>
+      <c r="F1749" t="n">
+        <v>240.7799987792969</v>
+      </c>
+      <c r="G1749" t="n">
+        <v>199251</v>
+      </c>
+      <c r="H1749" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1749" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1749" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1749" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1749" t="inlineStr"/>
+    </row>
+    <row r="1750">
+      <c r="A1750" s="2" t="n">
+        <v>45569</v>
+      </c>
+      <c r="B1750" t="n">
+        <v>240.1000061035156</v>
+      </c>
+      <c r="C1750" t="n">
+        <v>249.7700042724609</v>
+      </c>
+      <c r="D1750" t="n">
+        <v>233.1499938964844</v>
+      </c>
+      <c r="E1750" t="n">
+        <v>239.0599975585938</v>
+      </c>
+      <c r="F1750" t="n">
+        <v>239.0599975585938</v>
+      </c>
+      <c r="G1750" t="n">
+        <v>154053</v>
+      </c>
+      <c r="H1750" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1750" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1750" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1750" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1750" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/APEX.NS.xlsx
+++ b/stock_historical_data/1d/APEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1750"/>
+  <dimension ref="A1:R1755"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98181,7 +98181,7 @@
         <v>39</v>
       </c>
       <c r="O1745" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1745" t="n">
         <v>0</v>
@@ -98301,7 +98301,9 @@
       <c r="Q1747" t="n">
         <v>0</v>
       </c>
-      <c r="R1747" t="inlineStr"/>
+      <c r="R1747" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1748">
       <c r="A1748" s="2" t="n">
@@ -98355,7 +98357,9 @@
       <c r="Q1748" t="n">
         <v>0</v>
       </c>
-      <c r="R1748" t="inlineStr"/>
+      <c r="R1748" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1749">
       <c r="A1749" s="2" t="n">
@@ -98409,7 +98413,9 @@
       <c r="Q1749" t="n">
         <v>0</v>
       </c>
-      <c r="R1749" t="inlineStr"/>
+      <c r="R1749" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1750">
       <c r="A1750" s="2" t="n">
@@ -98463,7 +98469,279 @@
       <c r="Q1750" t="n">
         <v>0</v>
       </c>
-      <c r="R1750" t="inlineStr"/>
+      <c r="R1750" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1751">
+      <c r="A1751" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B1751" t="n">
+        <v>238.8000030517578</v>
+      </c>
+      <c r="C1751" t="n">
+        <v>239.9900054931641</v>
+      </c>
+      <c r="D1751" t="n">
+        <v>226.0099945068359</v>
+      </c>
+      <c r="E1751" t="n">
+        <v>229.8300018310547</v>
+      </c>
+      <c r="F1751" t="n">
+        <v>229.8300018310547</v>
+      </c>
+      <c r="G1751" t="n">
+        <v>113031</v>
+      </c>
+      <c r="H1751" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1751" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1751" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1751" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1751" t="inlineStr"/>
+    </row>
+    <row r="1752">
+      <c r="A1752" s="2" t="n">
+        <v>45573</v>
+      </c>
+      <c r="B1752" t="n">
+        <v>228.4600067138672</v>
+      </c>
+      <c r="C1752" t="n">
+        <v>238.9199981689453</v>
+      </c>
+      <c r="D1752" t="n">
+        <v>228</v>
+      </c>
+      <c r="E1752" t="n">
+        <v>236.1300048828125</v>
+      </c>
+      <c r="F1752" t="n">
+        <v>236.1300048828125</v>
+      </c>
+      <c r="G1752" t="n">
+        <v>76763</v>
+      </c>
+      <c r="H1752" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1752" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1752" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1752" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1752" t="inlineStr"/>
+    </row>
+    <row r="1753">
+      <c r="A1753" s="2" t="n">
+        <v>45574</v>
+      </c>
+      <c r="B1753" t="n">
+        <v>235</v>
+      </c>
+      <c r="C1753" t="n">
+        <v>245</v>
+      </c>
+      <c r="D1753" t="n">
+        <v>235</v>
+      </c>
+      <c r="E1753" t="n">
+        <v>242.25</v>
+      </c>
+      <c r="F1753" t="n">
+        <v>242.25</v>
+      </c>
+      <c r="G1753" t="n">
+        <v>65526</v>
+      </c>
+      <c r="H1753" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1753" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1753" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1753" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1753" t="inlineStr"/>
+    </row>
+    <row r="1754">
+      <c r="A1754" s="2" t="n">
+        <v>45575</v>
+      </c>
+      <c r="B1754" t="n">
+        <v>244</v>
+      </c>
+      <c r="C1754" t="n">
+        <v>248.1699981689453</v>
+      </c>
+      <c r="D1754" t="n">
+        <v>239.4199981689453</v>
+      </c>
+      <c r="E1754" t="n">
+        <v>246.2799987792969</v>
+      </c>
+      <c r="F1754" t="n">
+        <v>246.2799987792969</v>
+      </c>
+      <c r="G1754" t="n">
+        <v>59776</v>
+      </c>
+      <c r="H1754" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1754" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1754" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1754" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1754" t="inlineStr"/>
+    </row>
+    <row r="1755">
+      <c r="A1755" s="2" t="n">
+        <v>45576</v>
+      </c>
+      <c r="B1755" t="n">
+        <v>246.9900054931641</v>
+      </c>
+      <c r="C1755" t="n">
+        <v>252.5899963378906</v>
+      </c>
+      <c r="D1755" t="n">
+        <v>237.5</v>
+      </c>
+      <c r="E1755" t="n">
+        <v>244.2299957275391</v>
+      </c>
+      <c r="F1755" t="n">
+        <v>244.2299957275391</v>
+      </c>
+      <c r="G1755" t="n">
+        <v>147237</v>
+      </c>
+      <c r="H1755" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1755" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1755" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1755" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1755" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/APEX.NS.xlsx
+++ b/stock_historical_data/1d/APEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1755"/>
+  <dimension ref="A1:R1760"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98525,7 +98525,9 @@
       <c r="Q1751" t="n">
         <v>0</v>
       </c>
-      <c r="R1751" t="inlineStr"/>
+      <c r="R1751" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1752">
       <c r="A1752" s="2" t="n">
@@ -98579,7 +98581,9 @@
       <c r="Q1752" t="n">
         <v>0</v>
       </c>
-      <c r="R1752" t="inlineStr"/>
+      <c r="R1752" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1753">
       <c r="A1753" s="2" t="n">
@@ -98633,7 +98637,9 @@
       <c r="Q1753" t="n">
         <v>0</v>
       </c>
-      <c r="R1753" t="inlineStr"/>
+      <c r="R1753" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1754">
       <c r="A1754" s="2" t="n">
@@ -98687,7 +98693,9 @@
       <c r="Q1754" t="n">
         <v>0</v>
       </c>
-      <c r="R1754" t="inlineStr"/>
+      <c r="R1754" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1755">
       <c r="A1755" s="2" t="n">
@@ -98741,7 +98749,279 @@
       <c r="Q1755" t="n">
         <v>0</v>
       </c>
-      <c r="R1755" t="inlineStr"/>
+      <c r="R1755" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1756">
+      <c r="A1756" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B1756" t="n">
+        <v>243.5099945068359</v>
+      </c>
+      <c r="C1756" t="n">
+        <v>252</v>
+      </c>
+      <c r="D1756" t="n">
+        <v>243.1100006103516</v>
+      </c>
+      <c r="E1756" t="n">
+        <v>250.9499969482422</v>
+      </c>
+      <c r="F1756" t="n">
+        <v>250.9499969482422</v>
+      </c>
+      <c r="G1756" t="n">
+        <v>90348</v>
+      </c>
+      <c r="H1756" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1756" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1756" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1756" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1756" t="inlineStr"/>
+    </row>
+    <row r="1757">
+      <c r="A1757" s="2" t="n">
+        <v>45580</v>
+      </c>
+      <c r="B1757" t="n">
+        <v>250.9499969482422</v>
+      </c>
+      <c r="C1757" t="n">
+        <v>264.1499938964844</v>
+      </c>
+      <c r="D1757" t="n">
+        <v>249.6000061035156</v>
+      </c>
+      <c r="E1757" t="n">
+        <v>261.3699951171875</v>
+      </c>
+      <c r="F1757" t="n">
+        <v>261.3699951171875</v>
+      </c>
+      <c r="G1757" t="n">
+        <v>284247</v>
+      </c>
+      <c r="H1757" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1757" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1757" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1757" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1757" t="inlineStr"/>
+    </row>
+    <row r="1758">
+      <c r="A1758" s="2" t="n">
+        <v>45581</v>
+      </c>
+      <c r="B1758" t="n">
+        <v>260</v>
+      </c>
+      <c r="C1758" t="n">
+        <v>264.8999938964844</v>
+      </c>
+      <c r="D1758" t="n">
+        <v>257.0499877929688</v>
+      </c>
+      <c r="E1758" t="n">
+        <v>260.2999877929688</v>
+      </c>
+      <c r="F1758" t="n">
+        <v>260.2999877929688</v>
+      </c>
+      <c r="G1758" t="n">
+        <v>124658</v>
+      </c>
+      <c r="H1758" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1758" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1758" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1758" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1758" t="inlineStr"/>
+    </row>
+    <row r="1759">
+      <c r="A1759" s="2" t="n">
+        <v>45582</v>
+      </c>
+      <c r="B1759" t="n">
+        <v>260.7999877929688</v>
+      </c>
+      <c r="C1759" t="n">
+        <v>260.7999877929688</v>
+      </c>
+      <c r="D1759" t="n">
+        <v>253</v>
+      </c>
+      <c r="E1759" t="n">
+        <v>253.3500061035156</v>
+      </c>
+      <c r="F1759" t="n">
+        <v>253.3500061035156</v>
+      </c>
+      <c r="G1759" t="n">
+        <v>88891</v>
+      </c>
+      <c r="H1759" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1759" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1759" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1759" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1759" t="inlineStr"/>
+    </row>
+    <row r="1760">
+      <c r="A1760" s="2" t="n">
+        <v>45583</v>
+      </c>
+      <c r="B1760" t="n">
+        <v>252.8999938964844</v>
+      </c>
+      <c r="C1760" t="n">
+        <v>267.2999877929688</v>
+      </c>
+      <c r="D1760" t="n">
+        <v>251.5</v>
+      </c>
+      <c r="E1760" t="n">
+        <v>265.2999877929688</v>
+      </c>
+      <c r="F1760" t="n">
+        <v>265.2999877929688</v>
+      </c>
+      <c r="G1760" t="n">
+        <v>398201</v>
+      </c>
+      <c r="H1760" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1760" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1760" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1760" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1760" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/APEX.NS.xlsx
+++ b/stock_historical_data/1d/APEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1760"/>
+  <dimension ref="A1:R1765"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98517,7 +98517,7 @@
         <v>41</v>
       </c>
       <c r="O1751" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1751" t="n">
         <v>0</v>
@@ -98805,7 +98805,9 @@
       <c r="Q1756" t="n">
         <v>0</v>
       </c>
-      <c r="R1756" t="inlineStr"/>
+      <c r="R1756" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1757">
       <c r="A1757" s="2" t="n">
@@ -98859,7 +98861,9 @@
       <c r="Q1757" t="n">
         <v>0</v>
       </c>
-      <c r="R1757" t="inlineStr"/>
+      <c r="R1757" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1758">
       <c r="A1758" s="2" t="n">
@@ -98913,7 +98917,9 @@
       <c r="Q1758" t="n">
         <v>0</v>
       </c>
-      <c r="R1758" t="inlineStr"/>
+      <c r="R1758" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1759">
       <c r="A1759" s="2" t="n">
@@ -98967,7 +98973,9 @@
       <c r="Q1759" t="n">
         <v>0</v>
       </c>
-      <c r="R1759" t="inlineStr"/>
+      <c r="R1759" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1760">
       <c r="A1760" s="2" t="n">
@@ -99021,7 +99029,279 @@
       <c r="Q1760" t="n">
         <v>0</v>
       </c>
-      <c r="R1760" t="inlineStr"/>
+      <c r="R1760" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1761">
+      <c r="A1761" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B1761" t="n">
+        <v>267</v>
+      </c>
+      <c r="C1761" t="n">
+        <v>269.7000122070312</v>
+      </c>
+      <c r="D1761" t="n">
+        <v>253.1000061035156</v>
+      </c>
+      <c r="E1761" t="n">
+        <v>255.3999938964844</v>
+      </c>
+      <c r="F1761" t="n">
+        <v>255.3999938964844</v>
+      </c>
+      <c r="G1761" t="n">
+        <v>118549</v>
+      </c>
+      <c r="H1761" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1761" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1761" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1761" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1761" t="inlineStr"/>
+    </row>
+    <row r="1762">
+      <c r="A1762" s="2" t="n">
+        <v>45587</v>
+      </c>
+      <c r="B1762" t="n">
+        <v>254.7599945068359</v>
+      </c>
+      <c r="C1762" t="n">
+        <v>257.2200012207031</v>
+      </c>
+      <c r="D1762" t="n">
+        <v>242.8999938964844</v>
+      </c>
+      <c r="E1762" t="n">
+        <v>243.6799926757812</v>
+      </c>
+      <c r="F1762" t="n">
+        <v>243.6799926757812</v>
+      </c>
+      <c r="G1762" t="n">
+        <v>96702</v>
+      </c>
+      <c r="H1762" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1762" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1762" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1762" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1762" t="inlineStr"/>
+    </row>
+    <row r="1763">
+      <c r="A1763" s="2" t="n">
+        <v>45588</v>
+      </c>
+      <c r="B1763" t="n">
+        <v>240.8300018310547</v>
+      </c>
+      <c r="C1763" t="n">
+        <v>250</v>
+      </c>
+      <c r="D1763" t="n">
+        <v>239.3000030517578</v>
+      </c>
+      <c r="E1763" t="n">
+        <v>243.2599945068359</v>
+      </c>
+      <c r="F1763" t="n">
+        <v>243.2599945068359</v>
+      </c>
+      <c r="G1763" t="n">
+        <v>71457</v>
+      </c>
+      <c r="H1763" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1763" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1763" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1763" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1763" t="inlineStr"/>
+    </row>
+    <row r="1764">
+      <c r="A1764" s="2" t="n">
+        <v>45589</v>
+      </c>
+      <c r="B1764" t="n">
+        <v>242</v>
+      </c>
+      <c r="C1764" t="n">
+        <v>247.3000030517578</v>
+      </c>
+      <c r="D1764" t="n">
+        <v>241.3000030517578</v>
+      </c>
+      <c r="E1764" t="n">
+        <v>242.3899993896484</v>
+      </c>
+      <c r="F1764" t="n">
+        <v>242.3899993896484</v>
+      </c>
+      <c r="G1764" t="n">
+        <v>43995</v>
+      </c>
+      <c r="H1764" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1764" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1764" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1764" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1764" t="inlineStr"/>
+    </row>
+    <row r="1765">
+      <c r="A1765" s="2" t="n">
+        <v>45590</v>
+      </c>
+      <c r="B1765" t="n">
+        <v>242.5599975585938</v>
+      </c>
+      <c r="C1765" t="n">
+        <v>244.0399932861328</v>
+      </c>
+      <c r="D1765" t="n">
+        <v>235.6499938964844</v>
+      </c>
+      <c r="E1765" t="n">
+        <v>238.6300048828125</v>
+      </c>
+      <c r="F1765" t="n">
+        <v>238.6300048828125</v>
+      </c>
+      <c r="G1765" t="n">
+        <v>43432</v>
+      </c>
+      <c r="H1765" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1765" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1765" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1765" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1765" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/APEX.NS.xlsx
+++ b/stock_historical_data/1d/APEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1765"/>
+  <dimension ref="A1:R1770"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -99085,7 +99085,9 @@
       <c r="Q1761" t="n">
         <v>0</v>
       </c>
-      <c r="R1761" t="inlineStr"/>
+      <c r="R1761" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1762">
       <c r="A1762" s="2" t="n">
@@ -99139,7 +99141,9 @@
       <c r="Q1762" t="n">
         <v>0</v>
       </c>
-      <c r="R1762" t="inlineStr"/>
+      <c r="R1762" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1763">
       <c r="A1763" s="2" t="n">
@@ -99193,7 +99197,9 @@
       <c r="Q1763" t="n">
         <v>0</v>
       </c>
-      <c r="R1763" t="inlineStr"/>
+      <c r="R1763" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1764">
       <c r="A1764" s="2" t="n">
@@ -99247,7 +99253,9 @@
       <c r="Q1764" t="n">
         <v>0</v>
       </c>
-      <c r="R1764" t="inlineStr"/>
+      <c r="R1764" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1765">
       <c r="A1765" s="2" t="n">
@@ -99301,7 +99309,279 @@
       <c r="Q1765" t="n">
         <v>0</v>
       </c>
-      <c r="R1765" t="inlineStr"/>
+      <c r="R1765" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1766">
+      <c r="A1766" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B1766" t="n">
+        <v>238.6399993896484</v>
+      </c>
+      <c r="C1766" t="n">
+        <v>244.0899963378906</v>
+      </c>
+      <c r="D1766" t="n">
+        <v>237</v>
+      </c>
+      <c r="E1766" t="n">
+        <v>240.1699981689453</v>
+      </c>
+      <c r="F1766" t="n">
+        <v>240.1699981689453</v>
+      </c>
+      <c r="G1766" t="n">
+        <v>58584</v>
+      </c>
+      <c r="H1766" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1766" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1766" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1766" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1766" t="inlineStr"/>
+    </row>
+    <row r="1767">
+      <c r="A1767" s="2" t="n">
+        <v>45594</v>
+      </c>
+      <c r="B1767" t="n">
+        <v>239.8999938964844</v>
+      </c>
+      <c r="C1767" t="n">
+        <v>242.8999938964844</v>
+      </c>
+      <c r="D1767" t="n">
+        <v>237.0099945068359</v>
+      </c>
+      <c r="E1767" t="n">
+        <v>237.8200073242188</v>
+      </c>
+      <c r="F1767" t="n">
+        <v>237.8200073242188</v>
+      </c>
+      <c r="G1767" t="n">
+        <v>72177</v>
+      </c>
+      <c r="H1767" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1767" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1767" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1767" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1767" t="inlineStr"/>
+    </row>
+    <row r="1768">
+      <c r="A1768" s="2" t="n">
+        <v>45595</v>
+      </c>
+      <c r="B1768" t="n">
+        <v>237.9900054931641</v>
+      </c>
+      <c r="C1768" t="n">
+        <v>243.5599975585938</v>
+      </c>
+      <c r="D1768" t="n">
+        <v>237.5099945068359</v>
+      </c>
+      <c r="E1768" t="n">
+        <v>240.5599975585938</v>
+      </c>
+      <c r="F1768" t="n">
+        <v>240.5599975585938</v>
+      </c>
+      <c r="G1768" t="n">
+        <v>78523</v>
+      </c>
+      <c r="H1768" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1768" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1768" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1768" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1768" t="inlineStr"/>
+    </row>
+    <row r="1769">
+      <c r="A1769" s="2" t="n">
+        <v>45596</v>
+      </c>
+      <c r="B1769" t="n">
+        <v>239.3999938964844</v>
+      </c>
+      <c r="C1769" t="n">
+        <v>242.8000030517578</v>
+      </c>
+      <c r="D1769" t="n">
+        <v>238</v>
+      </c>
+      <c r="E1769" t="n">
+        <v>239.9400024414062</v>
+      </c>
+      <c r="F1769" t="n">
+        <v>239.9400024414062</v>
+      </c>
+      <c r="G1769" t="n">
+        <v>21972</v>
+      </c>
+      <c r="H1769" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1769" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1769" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1769" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1769" t="inlineStr"/>
+    </row>
+    <row r="1770">
+      <c r="A1770" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B1770" t="n">
+        <v>242.6999969482422</v>
+      </c>
+      <c r="C1770" t="n">
+        <v>248</v>
+      </c>
+      <c r="D1770" t="n">
+        <v>235.5099945068359</v>
+      </c>
+      <c r="E1770" t="n">
+        <v>247.1000061035156</v>
+      </c>
+      <c r="F1770" t="n">
+        <v>247.1000061035156</v>
+      </c>
+      <c r="G1770" t="n">
+        <v>31291</v>
+      </c>
+      <c r="H1770" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1770" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1770" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1770" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1770" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/APEX.NS.xlsx
+++ b/stock_historical_data/1d/APEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1770"/>
+  <dimension ref="A1:R1775"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -99077,7 +99077,7 @@
         <v>43</v>
       </c>
       <c r="O1761" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1761" t="n">
         <v>0</v>
@@ -99365,7 +99365,9 @@
       <c r="Q1766" t="n">
         <v>0</v>
       </c>
-      <c r="R1766" t="inlineStr"/>
+      <c r="R1766" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1767">
       <c r="A1767" s="2" t="n">
@@ -99419,7 +99421,9 @@
       <c r="Q1767" t="n">
         <v>0</v>
       </c>
-      <c r="R1767" t="inlineStr"/>
+      <c r="R1767" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1768">
       <c r="A1768" s="2" t="n">
@@ -99473,7 +99477,9 @@
       <c r="Q1768" t="n">
         <v>0</v>
       </c>
-      <c r="R1768" t="inlineStr"/>
+      <c r="R1768" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1769">
       <c r="A1769" s="2" t="n">
@@ -99527,7 +99533,9 @@
       <c r="Q1769" t="n">
         <v>0</v>
       </c>
-      <c r="R1769" t="inlineStr"/>
+      <c r="R1769" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1770">
       <c r="A1770" s="2" t="n">
@@ -99581,7 +99589,279 @@
       <c r="Q1770" t="n">
         <v>0</v>
       </c>
-      <c r="R1770" t="inlineStr"/>
+      <c r="R1770" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1771">
+      <c r="A1771" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B1771" t="n">
+        <v>249</v>
+      </c>
+      <c r="C1771" t="n">
+        <v>267</v>
+      </c>
+      <c r="D1771" t="n">
+        <v>240.3899993896484</v>
+      </c>
+      <c r="E1771" t="n">
+        <v>258.8299865722656</v>
+      </c>
+      <c r="F1771" t="n">
+        <v>258.8299865722656</v>
+      </c>
+      <c r="G1771" t="n">
+        <v>328368</v>
+      </c>
+      <c r="H1771" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1771" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1771" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1771" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1771" t="inlineStr"/>
+    </row>
+    <row r="1772">
+      <c r="A1772" s="2" t="n">
+        <v>45601</v>
+      </c>
+      <c r="B1772" t="n">
+        <v>257.510009765625</v>
+      </c>
+      <c r="C1772" t="n">
+        <v>266.3999938964844</v>
+      </c>
+      <c r="D1772" t="n">
+        <v>255</v>
+      </c>
+      <c r="E1772" t="n">
+        <v>260.8500061035156</v>
+      </c>
+      <c r="F1772" t="n">
+        <v>260.8500061035156</v>
+      </c>
+      <c r="G1772" t="n">
+        <v>180228</v>
+      </c>
+      <c r="H1772" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1772" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1772" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1772" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1772" t="inlineStr"/>
+    </row>
+    <row r="1773">
+      <c r="A1773" s="2" t="n">
+        <v>45602</v>
+      </c>
+      <c r="B1773" t="n">
+        <v>263.4500122070312</v>
+      </c>
+      <c r="C1773" t="n">
+        <v>272.0199890136719</v>
+      </c>
+      <c r="D1773" t="n">
+        <v>259.4400024414062</v>
+      </c>
+      <c r="E1773" t="n">
+        <v>265.1000061035156</v>
+      </c>
+      <c r="F1773" t="n">
+        <v>265.1000061035156</v>
+      </c>
+      <c r="G1773" t="n">
+        <v>170344</v>
+      </c>
+      <c r="H1773" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1773" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1773" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1773" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1773" t="inlineStr"/>
+    </row>
+    <row r="1774">
+      <c r="A1774" s="2" t="n">
+        <v>45603</v>
+      </c>
+      <c r="B1774" t="n">
+        <v>266.5499877929688</v>
+      </c>
+      <c r="C1774" t="n">
+        <v>271.8800048828125</v>
+      </c>
+      <c r="D1774" t="n">
+        <v>258.4100036621094</v>
+      </c>
+      <c r="E1774" t="n">
+        <v>262.0299987792969</v>
+      </c>
+      <c r="F1774" t="n">
+        <v>262.0299987792969</v>
+      </c>
+      <c r="G1774" t="n">
+        <v>123679</v>
+      </c>
+      <c r="H1774" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1774" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1774" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1774" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1774" t="inlineStr"/>
+    </row>
+    <row r="1775">
+      <c r="A1775" s="2" t="n">
+        <v>45604</v>
+      </c>
+      <c r="B1775" t="n">
+        <v>262.25</v>
+      </c>
+      <c r="C1775" t="n">
+        <v>263.8999938964844</v>
+      </c>
+      <c r="D1775" t="n">
+        <v>254.2100067138672</v>
+      </c>
+      <c r="E1775" t="n">
+        <v>255.9900054931641</v>
+      </c>
+      <c r="F1775" t="n">
+        <v>255.9900054931641</v>
+      </c>
+      <c r="G1775" t="n">
+        <v>55352</v>
+      </c>
+      <c r="H1775" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1775" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1775" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1775" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1775" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/APEX.NS.xlsx
+++ b/stock_historical_data/1d/APEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1775"/>
+  <dimension ref="A1:R1779"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -99645,7 +99645,9 @@
       <c r="Q1771" t="n">
         <v>0</v>
       </c>
-      <c r="R1771" t="inlineStr"/>
+      <c r="R1771" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1772">
       <c r="A1772" s="2" t="n">
@@ -99699,7 +99701,9 @@
       <c r="Q1772" t="n">
         <v>0</v>
       </c>
-      <c r="R1772" t="inlineStr"/>
+      <c r="R1772" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1773">
       <c r="A1773" s="2" t="n">
@@ -99753,7 +99757,9 @@
       <c r="Q1773" t="n">
         <v>0</v>
       </c>
-      <c r="R1773" t="inlineStr"/>
+      <c r="R1773" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1774">
       <c r="A1774" s="2" t="n">
@@ -99807,7 +99813,9 @@
       <c r="Q1774" t="n">
         <v>0</v>
       </c>
-      <c r="R1774" t="inlineStr"/>
+      <c r="R1774" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1775">
       <c r="A1775" s="2" t="n">
@@ -99861,7 +99869,225 @@
       <c r="Q1775" t="n">
         <v>0</v>
       </c>
-      <c r="R1775" t="inlineStr"/>
+      <c r="R1775" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1776">
+      <c r="A1776" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B1776" t="n">
+        <v>255.9799957275391</v>
+      </c>
+      <c r="C1776" t="n">
+        <v>257</v>
+      </c>
+      <c r="D1776" t="n">
+        <v>251.4199981689453</v>
+      </c>
+      <c r="E1776" t="n">
+        <v>253.2400054931641</v>
+      </c>
+      <c r="F1776" t="n">
+        <v>253.2400054931641</v>
+      </c>
+      <c r="G1776" t="n">
+        <v>41561</v>
+      </c>
+      <c r="H1776" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1776" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1776" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1776" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1776" t="inlineStr"/>
+    </row>
+    <row r="1777">
+      <c r="A1777" s="2" t="n">
+        <v>45608</v>
+      </c>
+      <c r="B1777" t="n">
+        <v>251.1999969482422</v>
+      </c>
+      <c r="C1777" t="n">
+        <v>259.3500061035156</v>
+      </c>
+      <c r="D1777" t="n">
+        <v>242</v>
+      </c>
+      <c r="E1777" t="n">
+        <v>243.3699951171875</v>
+      </c>
+      <c r="F1777" t="n">
+        <v>243.3699951171875</v>
+      </c>
+      <c r="G1777" t="n">
+        <v>60393</v>
+      </c>
+      <c r="H1777" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1777" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1777" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1777" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1777" t="inlineStr"/>
+    </row>
+    <row r="1778">
+      <c r="A1778" s="2" t="n">
+        <v>45609</v>
+      </c>
+      <c r="B1778" t="n">
+        <v>238</v>
+      </c>
+      <c r="C1778" t="n">
+        <v>238</v>
+      </c>
+      <c r="D1778" t="n">
+        <v>219</v>
+      </c>
+      <c r="E1778" t="n">
+        <v>222.4900054931641</v>
+      </c>
+      <c r="F1778" t="n">
+        <v>222.4900054931641</v>
+      </c>
+      <c r="G1778" t="n">
+        <v>277134</v>
+      </c>
+      <c r="H1778" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1778" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1778" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1778" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1778" t="inlineStr"/>
+    </row>
+    <row r="1779">
+      <c r="A1779" s="2" t="n">
+        <v>45610</v>
+      </c>
+      <c r="B1779" t="n">
+        <v>224.8000030517578</v>
+      </c>
+      <c r="C1779" t="n">
+        <v>234.2899932861328</v>
+      </c>
+      <c r="D1779" t="n">
+        <v>219</v>
+      </c>
+      <c r="E1779" t="n">
+        <v>230.2899932861328</v>
+      </c>
+      <c r="F1779" t="n">
+        <v>230.2899932861328</v>
+      </c>
+      <c r="G1779" t="n">
+        <v>112672</v>
+      </c>
+      <c r="H1779" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1779" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1779" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1779" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1779" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/APEX.NS.xlsx
+++ b/stock_historical_data/1d/APEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1779"/>
+  <dimension ref="A1:R1783"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -99749,7 +99749,7 @@
         <v>45</v>
       </c>
       <c r="O1773" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1773" t="n">
         <v>0</v>
@@ -99925,7 +99925,9 @@
       <c r="Q1776" t="n">
         <v>0</v>
       </c>
-      <c r="R1776" t="inlineStr"/>
+      <c r="R1776" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1777">
       <c r="A1777" s="2" t="n">
@@ -99979,7 +99981,9 @@
       <c r="Q1777" t="n">
         <v>0</v>
       </c>
-      <c r="R1777" t="inlineStr"/>
+      <c r="R1777" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1778">
       <c r="A1778" s="2" t="n">
@@ -100033,7 +100037,9 @@
       <c r="Q1778" t="n">
         <v>0</v>
       </c>
-      <c r="R1778" t="inlineStr"/>
+      <c r="R1778" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1779">
       <c r="A1779" s="2" t="n">
@@ -100087,7 +100093,225 @@
       <c r="Q1779" t="n">
         <v>0</v>
       </c>
-      <c r="R1779" t="inlineStr"/>
+      <c r="R1779" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1780">
+      <c r="A1780" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B1780" t="n">
+        <v>229.7599945068359</v>
+      </c>
+      <c r="C1780" t="n">
+        <v>234.9799957275391</v>
+      </c>
+      <c r="D1780" t="n">
+        <v>227</v>
+      </c>
+      <c r="E1780" t="n">
+        <v>231.3999938964844</v>
+      </c>
+      <c r="F1780" t="n">
+        <v>231.3999938964844</v>
+      </c>
+      <c r="G1780" t="n">
+        <v>95984</v>
+      </c>
+      <c r="H1780" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1780" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1780" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1780" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1780" t="inlineStr"/>
+    </row>
+    <row r="1781">
+      <c r="A1781" s="2" t="n">
+        <v>45615</v>
+      </c>
+      <c r="B1781" t="n">
+        <v>233.3999938964844</v>
+      </c>
+      <c r="C1781" t="n">
+        <v>243.3200073242188</v>
+      </c>
+      <c r="D1781" t="n">
+        <v>232.0099945068359</v>
+      </c>
+      <c r="E1781" t="n">
+        <v>239.1399993896484</v>
+      </c>
+      <c r="F1781" t="n">
+        <v>239.1399993896484</v>
+      </c>
+      <c r="G1781" t="n">
+        <v>118947</v>
+      </c>
+      <c r="H1781" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1781" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1781" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1781" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1781" t="inlineStr"/>
+    </row>
+    <row r="1782">
+      <c r="A1782" s="2" t="n">
+        <v>45617</v>
+      </c>
+      <c r="B1782" t="n">
+        <v>235.5500030517578</v>
+      </c>
+      <c r="C1782" t="n">
+        <v>241.1799926757812</v>
+      </c>
+      <c r="D1782" t="n">
+        <v>230.7100067138672</v>
+      </c>
+      <c r="E1782" t="n">
+        <v>236.1300048828125</v>
+      </c>
+      <c r="F1782" t="n">
+        <v>236.1300048828125</v>
+      </c>
+      <c r="G1782" t="n">
+        <v>56145</v>
+      </c>
+      <c r="H1782" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1782" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1782" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1782" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1782" t="inlineStr"/>
+    </row>
+    <row r="1783">
+      <c r="A1783" s="2" t="n">
+        <v>45618</v>
+      </c>
+      <c r="B1783" t="n">
+        <v>238.1999969482422</v>
+      </c>
+      <c r="C1783" t="n">
+        <v>245.1900024414062</v>
+      </c>
+      <c r="D1783" t="n">
+        <v>233.5099945068359</v>
+      </c>
+      <c r="E1783" t="n">
+        <v>243.2400054931641</v>
+      </c>
+      <c r="F1783" t="n">
+        <v>243.2400054931641</v>
+      </c>
+      <c r="G1783" t="n">
+        <v>72782</v>
+      </c>
+      <c r="H1783" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1783" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1783" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1783" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1783" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/APEX.NS.xlsx
+++ b/stock_historical_data/1d/APEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1783"/>
+  <dimension ref="A1:R1788"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -100029,7 +100029,7 @@
         <v>46</v>
       </c>
       <c r="O1778" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1778" t="n">
         <v>0</v>
@@ -100149,7 +100149,9 @@
       <c r="Q1780" t="n">
         <v>0</v>
       </c>
-      <c r="R1780" t="inlineStr"/>
+      <c r="R1780" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1781">
       <c r="A1781" s="2" t="n">
@@ -100203,7 +100205,9 @@
       <c r="Q1781" t="n">
         <v>0</v>
       </c>
-      <c r="R1781" t="inlineStr"/>
+      <c r="R1781" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1782">
       <c r="A1782" s="2" t="n">
@@ -100257,7 +100261,9 @@
       <c r="Q1782" t="n">
         <v>0</v>
       </c>
-      <c r="R1782" t="inlineStr"/>
+      <c r="R1782" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1783">
       <c r="A1783" s="2" t="n">
@@ -100311,7 +100317,279 @@
       <c r="Q1783" t="n">
         <v>0</v>
       </c>
-      <c r="R1783" t="inlineStr"/>
+      <c r="R1783" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1784">
+      <c r="A1784" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B1784" t="n">
+        <v>244.8999938964844</v>
+      </c>
+      <c r="C1784" t="n">
+        <v>245.5800018310547</v>
+      </c>
+      <c r="D1784" t="n">
+        <v>230.25</v>
+      </c>
+      <c r="E1784" t="n">
+        <v>231.8300018310547</v>
+      </c>
+      <c r="F1784" t="n">
+        <v>231.8300018310547</v>
+      </c>
+      <c r="G1784" t="n">
+        <v>126510</v>
+      </c>
+      <c r="H1784" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1784" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1784" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1784" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1784" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1784" t="inlineStr"/>
+    </row>
+    <row r="1785">
+      <c r="A1785" s="2" t="n">
+        <v>45622</v>
+      </c>
+      <c r="B1785" t="n">
+        <v>231</v>
+      </c>
+      <c r="C1785" t="n">
+        <v>234.75</v>
+      </c>
+      <c r="D1785" t="n">
+        <v>222.8500061035156</v>
+      </c>
+      <c r="E1785" t="n">
+        <v>224.3200073242188</v>
+      </c>
+      <c r="F1785" t="n">
+        <v>224.3200073242188</v>
+      </c>
+      <c r="G1785" t="n">
+        <v>188472</v>
+      </c>
+      <c r="H1785" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1785" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1785" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1785" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1785" t="inlineStr"/>
+    </row>
+    <row r="1786">
+      <c r="A1786" s="2" t="n">
+        <v>45623</v>
+      </c>
+      <c r="B1786" t="n">
+        <v>226.5</v>
+      </c>
+      <c r="C1786" t="n">
+        <v>234.9400024414062</v>
+      </c>
+      <c r="D1786" t="n">
+        <v>225.4499969482422</v>
+      </c>
+      <c r="E1786" t="n">
+        <v>229.4400024414062</v>
+      </c>
+      <c r="F1786" t="n">
+        <v>229.4400024414062</v>
+      </c>
+      <c r="G1786" t="n">
+        <v>86789</v>
+      </c>
+      <c r="H1786" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1786" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1786" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1786" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1786" t="inlineStr"/>
+    </row>
+    <row r="1787">
+      <c r="A1787" s="2" t="n">
+        <v>45624</v>
+      </c>
+      <c r="B1787" t="n">
+        <v>230.4499969482422</v>
+      </c>
+      <c r="C1787" t="n">
+        <v>238.3999938964844</v>
+      </c>
+      <c r="D1787" t="n">
+        <v>229.0200042724609</v>
+      </c>
+      <c r="E1787" t="n">
+        <v>234.1799926757812</v>
+      </c>
+      <c r="F1787" t="n">
+        <v>234.1799926757812</v>
+      </c>
+      <c r="G1787" t="n">
+        <v>82841</v>
+      </c>
+      <c r="H1787" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1787" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1787" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1787" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1787" t="inlineStr"/>
+    </row>
+    <row r="1788">
+      <c r="A1788" s="2" t="n">
+        <v>45625</v>
+      </c>
+      <c r="B1788" t="n">
+        <v>235.4900054931641</v>
+      </c>
+      <c r="C1788" t="n">
+        <v>238.4900054931641</v>
+      </c>
+      <c r="D1788" t="n">
+        <v>233.6100006103516</v>
+      </c>
+      <c r="E1788" t="n">
+        <v>235.75</v>
+      </c>
+      <c r="F1788" t="n">
+        <v>235.75</v>
+      </c>
+      <c r="G1788" t="n">
+        <v>42025</v>
+      </c>
+      <c r="H1788" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1788" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1788" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1788" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1788" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/APEX.NS.xlsx
+++ b/stock_historical_data/1d/APEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1788"/>
+  <dimension ref="A1:R1793"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9430,7 +9430,7 @@
         <v>2</v>
       </c>
       <c r="R160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161">
@@ -14134,7 +14134,7 @@
         <v>2</v>
       </c>
       <c r="R244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245">
@@ -16654,7 +16654,7 @@
         <v>2</v>
       </c>
       <c r="R289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290">
@@ -17046,7 +17046,7 @@
         <v>0</v>
       </c>
       <c r="R296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297">
@@ -17326,7 +17326,7 @@
         <v>2</v>
       </c>
       <c r="R301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302">
@@ -19062,7 +19062,7 @@
         <v>2</v>
       </c>
       <c r="R332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333">
@@ -20126,7 +20126,7 @@
         <v>2</v>
       </c>
       <c r="R351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352">
@@ -24942,7 +24942,7 @@
         <v>2</v>
       </c>
       <c r="R437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438">
@@ -28302,7 +28302,7 @@
         <v>1</v>
       </c>
       <c r="R497" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498">
@@ -29478,7 +29478,7 @@
         <v>2</v>
       </c>
       <c r="R518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="519">
@@ -30374,7 +30374,7 @@
         <v>2</v>
       </c>
       <c r="R534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="535">
@@ -44766,7 +44766,7 @@
         <v>1</v>
       </c>
       <c r="R791" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="792">
@@ -46782,7 +46782,7 @@
         <v>1</v>
       </c>
       <c r="R827" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="828">
@@ -58598,7 +58598,7 @@
         <v>0</v>
       </c>
       <c r="R1038" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1039">
@@ -59886,7 +59886,7 @@
         <v>0</v>
       </c>
       <c r="R1061" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1062">
@@ -61454,7 +61454,7 @@
         <v>2</v>
       </c>
       <c r="R1089" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1090">
@@ -61958,7 +61958,7 @@
         <v>1</v>
       </c>
       <c r="R1098" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1099">
@@ -70022,7 +70022,7 @@
         <v>0</v>
       </c>
       <c r="R1242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1243">
@@ -72430,7 +72430,7 @@
         <v>2</v>
       </c>
       <c r="R1285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1286">
@@ -73998,7 +73998,7 @@
         <v>2</v>
       </c>
       <c r="R1313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1314">
@@ -77022,7 +77022,7 @@
         <v>1</v>
       </c>
       <c r="R1367" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1368">
@@ -78310,7 +78310,7 @@
         <v>1</v>
       </c>
       <c r="R1390" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1391">
@@ -79318,7 +79318,7 @@
         <v>1</v>
       </c>
       <c r="R1408" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1409">
@@ -80550,7 +80550,7 @@
         <v>0</v>
       </c>
       <c r="R1430" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1431">
@@ -82062,7 +82062,7 @@
         <v>0</v>
       </c>
       <c r="R1457" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1458">
@@ -82566,7 +82566,7 @@
         <v>2</v>
       </c>
       <c r="R1466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1467">
@@ -83686,7 +83686,7 @@
         <v>1</v>
       </c>
       <c r="R1486" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1487">
@@ -84302,7 +84302,7 @@
         <v>2</v>
       </c>
       <c r="R1497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1498">
@@ -85646,7 +85646,7 @@
         <v>2</v>
       </c>
       <c r="R1521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1522">
@@ -86206,7 +86206,7 @@
         <v>1</v>
       </c>
       <c r="R1531" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1532">
@@ -89902,7 +89902,7 @@
         <v>0</v>
       </c>
       <c r="R1597" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1598">
@@ -93150,7 +93150,7 @@
         <v>0</v>
       </c>
       <c r="R1655" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1656">
@@ -100085,7 +100085,7 @@
         <v>46</v>
       </c>
       <c r="O1779" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1779" t="n">
         <v>0</v>
@@ -100373,7 +100373,9 @@
       <c r="Q1784" t="n">
         <v>0</v>
       </c>
-      <c r="R1784" t="inlineStr"/>
+      <c r="R1784" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1785">
       <c r="A1785" s="2" t="n">
@@ -100427,7 +100429,9 @@
       <c r="Q1785" t="n">
         <v>0</v>
       </c>
-      <c r="R1785" t="inlineStr"/>
+      <c r="R1785" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1786">
       <c r="A1786" s="2" t="n">
@@ -100481,7 +100485,9 @@
       <c r="Q1786" t="n">
         <v>0</v>
       </c>
-      <c r="R1786" t="inlineStr"/>
+      <c r="R1786" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1787">
       <c r="A1787" s="2" t="n">
@@ -100535,7 +100541,9 @@
       <c r="Q1787" t="n">
         <v>0</v>
       </c>
-      <c r="R1787" t="inlineStr"/>
+      <c r="R1787" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1788">
       <c r="A1788" s="2" t="n">
@@ -100589,7 +100597,279 @@
       <c r="Q1788" t="n">
         <v>0</v>
       </c>
-      <c r="R1788" t="inlineStr"/>
+      <c r="R1788" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1789">
+      <c r="A1789" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B1789" t="n">
+        <v>235.8200073242188</v>
+      </c>
+      <c r="C1789" t="n">
+        <v>236.8500061035156</v>
+      </c>
+      <c r="D1789" t="n">
+        <v>233.0500030517578</v>
+      </c>
+      <c r="E1789" t="n">
+        <v>235.8200073242188</v>
+      </c>
+      <c r="F1789" t="n">
+        <v>235.8200073242188</v>
+      </c>
+      <c r="G1789" t="n">
+        <v>29873</v>
+      </c>
+      <c r="H1789" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1789" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1789" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1789" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1789" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1789" t="inlineStr"/>
+    </row>
+    <row r="1790">
+      <c r="A1790" s="2" t="n">
+        <v>45629</v>
+      </c>
+      <c r="B1790" t="n">
+        <v>236.1000061035156</v>
+      </c>
+      <c r="C1790" t="n">
+        <v>243.5800018310547</v>
+      </c>
+      <c r="D1790" t="n">
+        <v>236.1000061035156</v>
+      </c>
+      <c r="E1790" t="n">
+        <v>239.75</v>
+      </c>
+      <c r="F1790" t="n">
+        <v>239.75</v>
+      </c>
+      <c r="G1790" t="n">
+        <v>68964</v>
+      </c>
+      <c r="H1790" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1790" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1790" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1790" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1790" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1790" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1790" t="inlineStr"/>
+    </row>
+    <row r="1791">
+      <c r="A1791" s="2" t="n">
+        <v>45630</v>
+      </c>
+      <c r="B1791" t="n">
+        <v>240.8999938964844</v>
+      </c>
+      <c r="C1791" t="n">
+        <v>257.2000122070312</v>
+      </c>
+      <c r="D1791" t="n">
+        <v>240.3999938964844</v>
+      </c>
+      <c r="E1791" t="n">
+        <v>252.8899993896484</v>
+      </c>
+      <c r="F1791" t="n">
+        <v>252.8899993896484</v>
+      </c>
+      <c r="G1791" t="n">
+        <v>154985</v>
+      </c>
+      <c r="H1791" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1791" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1791" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1791" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1791" t="inlineStr"/>
+    </row>
+    <row r="1792">
+      <c r="A1792" s="2" t="n">
+        <v>45631</v>
+      </c>
+      <c r="B1792" t="n">
+        <v>255</v>
+      </c>
+      <c r="C1792" t="n">
+        <v>265</v>
+      </c>
+      <c r="D1792" t="n">
+        <v>252.8899993896484</v>
+      </c>
+      <c r="E1792" t="n">
+        <v>258.9100036621094</v>
+      </c>
+      <c r="F1792" t="n">
+        <v>258.9100036621094</v>
+      </c>
+      <c r="G1792" t="n">
+        <v>217831</v>
+      </c>
+      <c r="H1792" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1792" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1792" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1792" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1792" t="inlineStr"/>
+    </row>
+    <row r="1793">
+      <c r="A1793" s="2" t="n">
+        <v>45632</v>
+      </c>
+      <c r="B1793" t="n">
+        <v>256</v>
+      </c>
+      <c r="C1793" t="n">
+        <v>259.8800048828125</v>
+      </c>
+      <c r="D1793" t="n">
+        <v>253.7299957275391</v>
+      </c>
+      <c r="E1793" t="n">
+        <v>256.0799865722656</v>
+      </c>
+      <c r="F1793" t="n">
+        <v>256.0799865722656</v>
+      </c>
+      <c r="G1793" t="n">
+        <v>46803</v>
+      </c>
+      <c r="H1793" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1793" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1793" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1793" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1793" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/APEX.NS.xlsx
+++ b/stock_historical_data/1d/APEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1793"/>
+  <dimension ref="A1:R1803"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9430,7 +9430,7 @@
         <v>2</v>
       </c>
       <c r="R160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
@@ -14134,7 +14134,7 @@
         <v>2</v>
       </c>
       <c r="R244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245">
@@ -16654,7 +16654,7 @@
         <v>2</v>
       </c>
       <c r="R289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290">
@@ -17046,7 +17046,7 @@
         <v>0</v>
       </c>
       <c r="R296" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297">
@@ -17326,7 +17326,7 @@
         <v>2</v>
       </c>
       <c r="R301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302">
@@ -19062,7 +19062,7 @@
         <v>2</v>
       </c>
       <c r="R332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333">
@@ -20126,7 +20126,7 @@
         <v>2</v>
       </c>
       <c r="R351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352">
@@ -24942,7 +24942,7 @@
         <v>2</v>
       </c>
       <c r="R437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438">
@@ -28302,7 +28302,7 @@
         <v>1</v>
       </c>
       <c r="R497" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498">
@@ -29478,7 +29478,7 @@
         <v>2</v>
       </c>
       <c r="R518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519">
@@ -30374,7 +30374,7 @@
         <v>2</v>
       </c>
       <c r="R534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535">
@@ -44766,7 +44766,7 @@
         <v>1</v>
       </c>
       <c r="R791" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="792">
@@ -46782,7 +46782,7 @@
         <v>1</v>
       </c>
       <c r="R827" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="828">
@@ -58598,7 +58598,7 @@
         <v>0</v>
       </c>
       <c r="R1038" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1039">
@@ -59886,7 +59886,7 @@
         <v>0</v>
       </c>
       <c r="R1061" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1062">
@@ -61454,7 +61454,7 @@
         <v>2</v>
       </c>
       <c r="R1089" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1090">
@@ -61958,7 +61958,7 @@
         <v>1</v>
       </c>
       <c r="R1098" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1099">
@@ -70022,7 +70022,7 @@
         <v>0</v>
       </c>
       <c r="R1242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1243">
@@ -72430,7 +72430,7 @@
         <v>2</v>
       </c>
       <c r="R1285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1286">
@@ -73998,7 +73998,7 @@
         <v>2</v>
       </c>
       <c r="R1313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1314">
@@ -77022,7 +77022,7 @@
         <v>1</v>
       </c>
       <c r="R1367" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1368">
@@ -78310,7 +78310,7 @@
         <v>1</v>
       </c>
       <c r="R1390" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1391">
@@ -79318,7 +79318,7 @@
         <v>1</v>
       </c>
       <c r="R1408" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1409">
@@ -80550,7 +80550,7 @@
         <v>0</v>
       </c>
       <c r="R1430" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1431">
@@ -82062,7 +82062,7 @@
         <v>0</v>
       </c>
       <c r="R1457" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1458">
@@ -82566,7 +82566,7 @@
         <v>2</v>
       </c>
       <c r="R1466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1467">
@@ -83686,7 +83686,7 @@
         <v>1</v>
       </c>
       <c r="R1486" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1487">
@@ -84302,7 +84302,7 @@
         <v>2</v>
       </c>
       <c r="R1497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1498">
@@ -85646,7 +85646,7 @@
         <v>2</v>
       </c>
       <c r="R1521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1522">
@@ -86206,7 +86206,7 @@
         <v>1</v>
       </c>
       <c r="R1531" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1532">
@@ -89902,7 +89902,7 @@
         <v>0</v>
       </c>
       <c r="R1597" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1598">
@@ -93150,7 +93150,7 @@
         <v>0</v>
       </c>
       <c r="R1655" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1656">
@@ -100374,7 +100374,7 @@
         <v>0</v>
       </c>
       <c r="R1784" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1785">
@@ -100653,7 +100653,9 @@
       <c r="Q1789" t="n">
         <v>0</v>
       </c>
-      <c r="R1789" t="inlineStr"/>
+      <c r="R1789" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1790">
       <c r="A1790" s="2" t="n">
@@ -100707,7 +100709,9 @@
       <c r="Q1790" t="n">
         <v>1</v>
       </c>
-      <c r="R1790" t="inlineStr"/>
+      <c r="R1790" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1791">
       <c r="A1791" s="2" t="n">
@@ -100761,7 +100765,9 @@
       <c r="Q1791" t="n">
         <v>0</v>
       </c>
-      <c r="R1791" t="inlineStr"/>
+      <c r="R1791" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1792">
       <c r="A1792" s="2" t="n">
@@ -100815,7 +100821,9 @@
       <c r="Q1792" t="n">
         <v>0</v>
       </c>
-      <c r="R1792" t="inlineStr"/>
+      <c r="R1792" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1793">
       <c r="A1793" s="2" t="n">
@@ -100869,7 +100877,529 @@
       <c r="Q1793" t="n">
         <v>0</v>
       </c>
-      <c r="R1793" t="inlineStr"/>
+      <c r="R1793" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1794">
+      <c r="A1794" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B1794" t="n">
+        <v>254.1499938964844</v>
+      </c>
+      <c r="C1794" t="n">
+        <v>262</v>
+      </c>
+      <c r="D1794" t="n">
+        <v>254</v>
+      </c>
+      <c r="E1794" t="n">
+        <v>256.4200134277344</v>
+      </c>
+      <c r="F1794" t="inlineStr"/>
+      <c r="G1794" t="n">
+        <v>104002</v>
+      </c>
+      <c r="H1794" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1794" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1794" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1794" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1794" t="inlineStr"/>
+    </row>
+    <row r="1795">
+      <c r="A1795" s="2" t="n">
+        <v>45636</v>
+      </c>
+      <c r="B1795" t="n">
+        <v>257.8999938964844</v>
+      </c>
+      <c r="C1795" t="n">
+        <v>269.2799987792969</v>
+      </c>
+      <c r="D1795" t="n">
+        <v>255.8699951171875</v>
+      </c>
+      <c r="E1795" t="n">
+        <v>267.8699951171875</v>
+      </c>
+      <c r="F1795" t="inlineStr"/>
+      <c r="G1795" t="n">
+        <v>252366</v>
+      </c>
+      <c r="H1795" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1795" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1795" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1795" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1795" t="inlineStr"/>
+    </row>
+    <row r="1796">
+      <c r="A1796" s="2" t="n">
+        <v>45637</v>
+      </c>
+      <c r="B1796" t="n">
+        <v>269.7000122070312</v>
+      </c>
+      <c r="C1796" t="n">
+        <v>269.7000122070312</v>
+      </c>
+      <c r="D1796" t="n">
+        <v>260.1000061035156</v>
+      </c>
+      <c r="E1796" t="n">
+        <v>265.1000061035156</v>
+      </c>
+      <c r="F1796" t="inlineStr"/>
+      <c r="G1796" t="n">
+        <v>101135</v>
+      </c>
+      <c r="H1796" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1796" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1796" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1796" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1796" t="inlineStr"/>
+    </row>
+    <row r="1797">
+      <c r="A1797" s="2" t="n">
+        <v>45638</v>
+      </c>
+      <c r="B1797" t="n">
+        <v>262</v>
+      </c>
+      <c r="C1797" t="n">
+        <v>264.0899963378906</v>
+      </c>
+      <c r="D1797" t="n">
+        <v>256</v>
+      </c>
+      <c r="E1797" t="n">
+        <v>257.2099914550781</v>
+      </c>
+      <c r="F1797" t="inlineStr"/>
+      <c r="G1797" t="n">
+        <v>49993</v>
+      </c>
+      <c r="H1797" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1797" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1797" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1797" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1797" t="inlineStr"/>
+    </row>
+    <row r="1798">
+      <c r="A1798" s="2" t="n">
+        <v>45639</v>
+      </c>
+      <c r="B1798" t="n">
+        <v>252.0200042724609</v>
+      </c>
+      <c r="C1798" t="n">
+        <v>262.7799987792969</v>
+      </c>
+      <c r="D1798" t="n">
+        <v>252.0200042724609</v>
+      </c>
+      <c r="E1798" t="n">
+        <v>258.8999938964844</v>
+      </c>
+      <c r="F1798" t="inlineStr"/>
+      <c r="G1798" t="n">
+        <v>113368</v>
+      </c>
+      <c r="H1798" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1798" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1798" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1798" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1798" t="inlineStr"/>
+    </row>
+    <row r="1799">
+      <c r="A1799" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B1799" t="n">
+        <v>259.7999877929688</v>
+      </c>
+      <c r="C1799" t="n">
+        <v>279.5499877929688</v>
+      </c>
+      <c r="D1799" t="n">
+        <v>258.3200073242188</v>
+      </c>
+      <c r="E1799" t="n">
+        <v>274.4100036621094</v>
+      </c>
+      <c r="F1799" t="inlineStr"/>
+      <c r="G1799" t="n">
+        <v>675690</v>
+      </c>
+      <c r="H1799" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1799" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1799" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1799" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1799" t="inlineStr"/>
+    </row>
+    <row r="1800">
+      <c r="A1800" s="2" t="n">
+        <v>45643</v>
+      </c>
+      <c r="B1800" t="n">
+        <v>272.2999877929688</v>
+      </c>
+      <c r="C1800" t="n">
+        <v>274</v>
+      </c>
+      <c r="D1800" t="n">
+        <v>266.1799926757812</v>
+      </c>
+      <c r="E1800" t="n">
+        <v>267.9100036621094</v>
+      </c>
+      <c r="F1800" t="inlineStr"/>
+      <c r="G1800" t="n">
+        <v>118274</v>
+      </c>
+      <c r="H1800" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1800" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1800" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1800" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1800" t="inlineStr"/>
+    </row>
+    <row r="1801">
+      <c r="A1801" s="2" t="n">
+        <v>45644</v>
+      </c>
+      <c r="B1801" t="n">
+        <v>267.6499938964844</v>
+      </c>
+      <c r="C1801" t="n">
+        <v>272</v>
+      </c>
+      <c r="D1801" t="n">
+        <v>259.510009765625</v>
+      </c>
+      <c r="E1801" t="n">
+        <v>260.9100036621094</v>
+      </c>
+      <c r="F1801" t="inlineStr"/>
+      <c r="G1801" t="n">
+        <v>89998</v>
+      </c>
+      <c r="H1801" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1801" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1801" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1801" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1801" t="inlineStr"/>
+    </row>
+    <row r="1802">
+      <c r="A1802" s="2" t="n">
+        <v>45645</v>
+      </c>
+      <c r="B1802" t="n">
+        <v>256.1000061035156</v>
+      </c>
+      <c r="C1802" t="n">
+        <v>264.0400085449219</v>
+      </c>
+      <c r="D1802" t="n">
+        <v>256.1000061035156</v>
+      </c>
+      <c r="E1802" t="n">
+        <v>260.1799926757812</v>
+      </c>
+      <c r="F1802" t="inlineStr"/>
+      <c r="G1802" t="n">
+        <v>68578</v>
+      </c>
+      <c r="H1802" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1802" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1802" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1802" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1802" t="inlineStr"/>
+    </row>
+    <row r="1803">
+      <c r="A1803" s="2" t="n">
+        <v>45646</v>
+      </c>
+      <c r="B1803" t="n">
+        <v>260.8999938964844</v>
+      </c>
+      <c r="C1803" t="n">
+        <v>262.9500122070312</v>
+      </c>
+      <c r="D1803" t="n">
+        <v>245.1000061035156</v>
+      </c>
+      <c r="E1803" t="n">
+        <v>246.8399963378906</v>
+      </c>
+      <c r="F1803" t="inlineStr"/>
+      <c r="G1803" t="n">
+        <v>92298</v>
+      </c>
+      <c r="H1803" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1803" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1803" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1803" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1803" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/APEX.NS.xlsx
+++ b/stock_historical_data/1d/APEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1803"/>
+  <dimension ref="A1:R1807"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -100931,7 +100931,9 @@
       <c r="Q1794" t="n">
         <v>0</v>
       </c>
-      <c r="R1794" t="inlineStr"/>
+      <c r="R1794" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1795">
       <c r="A1795" s="2" t="n">
@@ -100983,7 +100985,9 @@
       <c r="Q1795" t="n">
         <v>0</v>
       </c>
-      <c r="R1795" t="inlineStr"/>
+      <c r="R1795" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1796">
       <c r="A1796" s="2" t="n">
@@ -101035,7 +101039,9 @@
       <c r="Q1796" t="n">
         <v>0</v>
       </c>
-      <c r="R1796" t="inlineStr"/>
+      <c r="R1796" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1797">
       <c r="A1797" s="2" t="n">
@@ -101087,7 +101093,9 @@
       <c r="Q1797" t="n">
         <v>0</v>
       </c>
-      <c r="R1797" t="inlineStr"/>
+      <c r="R1797" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1798">
       <c r="A1798" s="2" t="n">
@@ -101139,7 +101147,9 @@
       <c r="Q1798" t="n">
         <v>0</v>
       </c>
-      <c r="R1798" t="inlineStr"/>
+      <c r="R1798" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1799">
       <c r="A1799" s="2" t="n">
@@ -101191,7 +101201,9 @@
       <c r="Q1799" t="n">
         <v>0</v>
       </c>
-      <c r="R1799" t="inlineStr"/>
+      <c r="R1799" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1800">
       <c r="A1800" s="2" t="n">
@@ -101243,7 +101255,9 @@
       <c r="Q1800" t="n">
         <v>0</v>
       </c>
-      <c r="R1800" t="inlineStr"/>
+      <c r="R1800" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1801">
       <c r="A1801" s="2" t="n">
@@ -101295,7 +101309,9 @@
       <c r="Q1801" t="n">
         <v>0</v>
       </c>
-      <c r="R1801" t="inlineStr"/>
+      <c r="R1801" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1802">
       <c r="A1802" s="2" t="n">
@@ -101347,7 +101363,9 @@
       <c r="Q1802" t="n">
         <v>0</v>
       </c>
-      <c r="R1802" t="inlineStr"/>
+      <c r="R1802" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1803">
       <c r="A1803" s="2" t="n">
@@ -101399,7 +101417,217 @@
       <c r="Q1803" t="n">
         <v>0</v>
       </c>
-      <c r="R1803" t="inlineStr"/>
+      <c r="R1803" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1804">
+      <c r="A1804" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B1804" t="n">
+        <v>248.8500061035156</v>
+      </c>
+      <c r="C1804" t="n">
+        <v>250.5</v>
+      </c>
+      <c r="D1804" t="n">
+        <v>238.0099945068359</v>
+      </c>
+      <c r="E1804" t="n">
+        <v>242.0700073242188</v>
+      </c>
+      <c r="F1804" t="inlineStr"/>
+      <c r="G1804" t="n">
+        <v>154735</v>
+      </c>
+      <c r="H1804" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1804" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1804" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1804" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1804" t="inlineStr"/>
+    </row>
+    <row r="1805">
+      <c r="A1805" s="2" t="n">
+        <v>45650</v>
+      </c>
+      <c r="B1805" t="n">
+        <v>243</v>
+      </c>
+      <c r="C1805" t="n">
+        <v>247.9700012207031</v>
+      </c>
+      <c r="D1805" t="n">
+        <v>240.2200012207031</v>
+      </c>
+      <c r="E1805" t="n">
+        <v>241.4299926757812</v>
+      </c>
+      <c r="F1805" t="inlineStr"/>
+      <c r="G1805" t="n">
+        <v>46804</v>
+      </c>
+      <c r="H1805" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1805" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1805" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1805" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1805" t="inlineStr"/>
+    </row>
+    <row r="1806">
+      <c r="A1806" s="2" t="n">
+        <v>45652</v>
+      </c>
+      <c r="B1806" t="n">
+        <v>242</v>
+      </c>
+      <c r="C1806" t="n">
+        <v>244.4700012207031</v>
+      </c>
+      <c r="D1806" t="n">
+        <v>235.2299957275391</v>
+      </c>
+      <c r="E1806" t="n">
+        <v>240.1600036621094</v>
+      </c>
+      <c r="F1806" t="inlineStr"/>
+      <c r="G1806" t="n">
+        <v>61501</v>
+      </c>
+      <c r="H1806" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1806" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1806" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1806" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1806" t="inlineStr"/>
+    </row>
+    <row r="1807">
+      <c r="A1807" s="2" t="n">
+        <v>45653</v>
+      </c>
+      <c r="B1807" t="n">
+        <v>241.1000061035156</v>
+      </c>
+      <c r="C1807" t="n">
+        <v>241.8500061035156</v>
+      </c>
+      <c r="D1807" t="n">
+        <v>237</v>
+      </c>
+      <c r="E1807" t="n">
+        <v>240.1000061035156</v>
+      </c>
+      <c r="F1807" t="inlineStr"/>
+      <c r="G1807" t="n">
+        <v>49335</v>
+      </c>
+      <c r="H1807" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1807" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1807" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1807" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1807" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/APEX.NS.xlsx
+++ b/stock_historical_data/1d/APEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1807"/>
+  <dimension ref="A1:R1812"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -101193,7 +101193,7 @@
         <v>51</v>
       </c>
       <c r="O1799" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1799" t="n">
         <v>0</v>
@@ -101471,7 +101471,9 @@
       <c r="Q1804" t="n">
         <v>0</v>
       </c>
-      <c r="R1804" t="inlineStr"/>
+      <c r="R1804" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1805">
       <c r="A1805" s="2" t="n">
@@ -101523,7 +101525,9 @@
       <c r="Q1805" t="n">
         <v>0</v>
       </c>
-      <c r="R1805" t="inlineStr"/>
+      <c r="R1805" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1806">
       <c r="A1806" s="2" t="n">
@@ -101575,7 +101579,9 @@
       <c r="Q1806" t="n">
         <v>0</v>
       </c>
-      <c r="R1806" t="inlineStr"/>
+      <c r="R1806" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1807">
       <c r="A1807" s="2" t="n">
@@ -101627,7 +101633,269 @@
       <c r="Q1807" t="n">
         <v>0</v>
       </c>
-      <c r="R1807" t="inlineStr"/>
+      <c r="R1807" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1808">
+      <c r="A1808" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B1808" t="n">
+        <v>240.8000030517578</v>
+      </c>
+      <c r="C1808" t="n">
+        <v>240.8000030517578</v>
+      </c>
+      <c r="D1808" t="n">
+        <v>236.0099945068359</v>
+      </c>
+      <c r="E1808" t="n">
+        <v>237.7599945068359</v>
+      </c>
+      <c r="F1808" t="inlineStr"/>
+      <c r="G1808" t="n">
+        <v>24713</v>
+      </c>
+      <c r="H1808" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1808" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1808" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1808" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1808" t="inlineStr"/>
+    </row>
+    <row r="1809">
+      <c r="A1809" s="2" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B1809" t="n">
+        <v>237.7599945068359</v>
+      </c>
+      <c r="C1809" t="n">
+        <v>279</v>
+      </c>
+      <c r="D1809" t="n">
+        <v>237.7599945068359</v>
+      </c>
+      <c r="E1809" t="n">
+        <v>273.4500122070312</v>
+      </c>
+      <c r="F1809" t="inlineStr"/>
+      <c r="G1809" t="n">
+        <v>2111792</v>
+      </c>
+      <c r="H1809" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1809" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1809" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1809" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1809" t="inlineStr"/>
+    </row>
+    <row r="1810">
+      <c r="A1810" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B1810" t="n">
+        <v>270.7000122070312</v>
+      </c>
+      <c r="C1810" t="n">
+        <v>274.3999938964844</v>
+      </c>
+      <c r="D1810" t="n">
+        <v>261.25</v>
+      </c>
+      <c r="E1810" t="n">
+        <v>263.0499877929688</v>
+      </c>
+      <c r="F1810" t="inlineStr"/>
+      <c r="G1810" t="n">
+        <v>533021</v>
+      </c>
+      <c r="H1810" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1810" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1810" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1810" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1810" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1810" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1810" t="inlineStr"/>
+    </row>
+    <row r="1811">
+      <c r="A1811" s="2" t="n">
+        <v>45659</v>
+      </c>
+      <c r="B1811" t="n">
+        <v>264.3999938964844</v>
+      </c>
+      <c r="C1811" t="n">
+        <v>281.7000122070312</v>
+      </c>
+      <c r="D1811" t="n">
+        <v>264</v>
+      </c>
+      <c r="E1811" t="n">
+        <v>268.1499938964844</v>
+      </c>
+      <c r="F1811" t="inlineStr"/>
+      <c r="G1811" t="n">
+        <v>1004535</v>
+      </c>
+      <c r="H1811" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1811" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1811" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1811" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1811" t="inlineStr"/>
+    </row>
+    <row r="1812">
+      <c r="A1812" s="2" t="n">
+        <v>45660</v>
+      </c>
+      <c r="B1812" t="n">
+        <v>267</v>
+      </c>
+      <c r="C1812" t="n">
+        <v>273.6000061035156</v>
+      </c>
+      <c r="D1812" t="n">
+        <v>262</v>
+      </c>
+      <c r="E1812" t="n">
+        <v>264.2999877929688</v>
+      </c>
+      <c r="F1812" t="inlineStr"/>
+      <c r="G1812" t="n">
+        <v>198127</v>
+      </c>
+      <c r="H1812" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1812" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1812" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1812" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1812" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/APEX.NS.xlsx
+++ b/stock_historical_data/1d/APEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1812"/>
+  <dimension ref="A1:R1817"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -101571,7 +101571,7 @@
         <v>52</v>
       </c>
       <c r="O1806" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1806" t="n">
         <v>0</v>
@@ -101687,7 +101687,9 @@
       <c r="Q1808" t="n">
         <v>0</v>
       </c>
-      <c r="R1808" t="inlineStr"/>
+      <c r="R1808" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1809">
       <c r="A1809" s="2" t="n">
@@ -101739,7 +101741,9 @@
       <c r="Q1809" t="n">
         <v>0</v>
       </c>
-      <c r="R1809" t="inlineStr"/>
+      <c r="R1809" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1810">
       <c r="A1810" s="2" t="n">
@@ -101791,7 +101795,9 @@
       <c r="Q1810" t="n">
         <v>2</v>
       </c>
-      <c r="R1810" t="inlineStr"/>
+      <c r="R1810" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1811">
       <c r="A1811" s="2" t="n">
@@ -101843,7 +101849,9 @@
       <c r="Q1811" t="n">
         <v>0</v>
       </c>
-      <c r="R1811" t="inlineStr"/>
+      <c r="R1811" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1812">
       <c r="A1812" s="2" t="n">
@@ -101895,7 +101903,269 @@
       <c r="Q1812" t="n">
         <v>0</v>
       </c>
-      <c r="R1812" t="inlineStr"/>
+      <c r="R1812" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1813">
+      <c r="A1813" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B1813" t="n">
+        <v>264</v>
+      </c>
+      <c r="C1813" t="n">
+        <v>264.9500122070312</v>
+      </c>
+      <c r="D1813" t="n">
+        <v>243</v>
+      </c>
+      <c r="E1813" t="n">
+        <v>244.75</v>
+      </c>
+      <c r="F1813" t="inlineStr"/>
+      <c r="G1813" t="n">
+        <v>199227</v>
+      </c>
+      <c r="H1813" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1813" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1813" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1813" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1813" t="inlineStr"/>
+    </row>
+    <row r="1814">
+      <c r="A1814" s="2" t="n">
+        <v>45664</v>
+      </c>
+      <c r="B1814" t="n">
+        <v>248.3999938964844</v>
+      </c>
+      <c r="C1814" t="n">
+        <v>258.3999938964844</v>
+      </c>
+      <c r="D1814" t="n">
+        <v>246.8500061035156</v>
+      </c>
+      <c r="E1814" t="n">
+        <v>252.6999969482422</v>
+      </c>
+      <c r="F1814" t="inlineStr"/>
+      <c r="G1814" t="n">
+        <v>107167</v>
+      </c>
+      <c r="H1814" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1814" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1814" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1814" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1814" t="inlineStr"/>
+    </row>
+    <row r="1815">
+      <c r="A1815" s="2" t="n">
+        <v>45665</v>
+      </c>
+      <c r="B1815" t="n">
+        <v>253.0500030517578</v>
+      </c>
+      <c r="C1815" t="n">
+        <v>255</v>
+      </c>
+      <c r="D1815" t="n">
+        <v>245.3000030517578</v>
+      </c>
+      <c r="E1815" t="n">
+        <v>251.5</v>
+      </c>
+      <c r="F1815" t="inlineStr"/>
+      <c r="G1815" t="n">
+        <v>99363</v>
+      </c>
+      <c r="H1815" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1815" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1815" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1815" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1815" t="inlineStr"/>
+    </row>
+    <row r="1816">
+      <c r="A1816" s="2" t="n">
+        <v>45666</v>
+      </c>
+      <c r="B1816" t="n">
+        <v>251.5500030517578</v>
+      </c>
+      <c r="C1816" t="n">
+        <v>263.0499877929688</v>
+      </c>
+      <c r="D1816" t="n">
+        <v>247.3000030517578</v>
+      </c>
+      <c r="E1816" t="n">
+        <v>249.3000030517578</v>
+      </c>
+      <c r="F1816" t="inlineStr"/>
+      <c r="G1816" t="n">
+        <v>156494</v>
+      </c>
+      <c r="H1816" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1816" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1816" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1816" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1816" t="inlineStr"/>
+    </row>
+    <row r="1817">
+      <c r="A1817" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="B1817" t="n">
+        <v>249</v>
+      </c>
+      <c r="C1817" t="n">
+        <v>249</v>
+      </c>
+      <c r="D1817" t="n">
+        <v>238</v>
+      </c>
+      <c r="E1817" t="n">
+        <v>242.75</v>
+      </c>
+      <c r="F1817" t="inlineStr"/>
+      <c r="G1817" t="n">
+        <v>74031</v>
+      </c>
+      <c r="H1817" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1817" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1817" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1817" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1817" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1817" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1817" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/APEX.NS.xlsx
+++ b/stock_historical_data/1d/APEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1817"/>
+  <dimension ref="A1:R1822"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -101841,7 +101841,7 @@
         <v>1</v>
       </c>
       <c r="O1811" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1811" t="n">
         <v>0</v>
@@ -101957,7 +101957,9 @@
       <c r="Q1813" t="n">
         <v>0</v>
       </c>
-      <c r="R1813" t="inlineStr"/>
+      <c r="R1813" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1814">
       <c r="A1814" s="2" t="n">
@@ -102009,7 +102011,9 @@
       <c r="Q1814" t="n">
         <v>0</v>
       </c>
-      <c r="R1814" t="inlineStr"/>
+      <c r="R1814" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1815">
       <c r="A1815" s="2" t="n">
@@ -102061,7 +102065,9 @@
       <c r="Q1815" t="n">
         <v>0</v>
       </c>
-      <c r="R1815" t="inlineStr"/>
+      <c r="R1815" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1816">
       <c r="A1816" s="2" t="n">
@@ -102113,7 +102119,9 @@
       <c r="Q1816" t="n">
         <v>0</v>
       </c>
-      <c r="R1816" t="inlineStr"/>
+      <c r="R1816" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1817">
       <c r="A1817" s="2" t="n">
@@ -102165,7 +102173,269 @@
       <c r="Q1817" t="n">
         <v>1</v>
       </c>
-      <c r="R1817" t="inlineStr"/>
+      <c r="R1817" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1818">
+      <c r="A1818" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B1818" t="n">
+        <v>239.8999938964844</v>
+      </c>
+      <c r="C1818" t="n">
+        <v>247</v>
+      </c>
+      <c r="D1818" t="n">
+        <v>223.1000061035156</v>
+      </c>
+      <c r="E1818" t="n">
+        <v>226.8000030517578</v>
+      </c>
+      <c r="F1818" t="inlineStr"/>
+      <c r="G1818" t="n">
+        <v>155445</v>
+      </c>
+      <c r="H1818" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1818" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1818" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1818" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1818" t="inlineStr"/>
+    </row>
+    <row r="1819">
+      <c r="A1819" s="2" t="n">
+        <v>45671</v>
+      </c>
+      <c r="B1819" t="n">
+        <v>230.1000061035156</v>
+      </c>
+      <c r="C1819" t="n">
+        <v>238</v>
+      </c>
+      <c r="D1819" t="n">
+        <v>228.8999938964844</v>
+      </c>
+      <c r="E1819" t="n">
+        <v>235.9499969482422</v>
+      </c>
+      <c r="F1819" t="inlineStr"/>
+      <c r="G1819" t="n">
+        <v>76815</v>
+      </c>
+      <c r="H1819" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1819" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1819" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1819" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1819" t="inlineStr"/>
+    </row>
+    <row r="1820">
+      <c r="A1820" s="2" t="n">
+        <v>45672</v>
+      </c>
+      <c r="B1820" t="n">
+        <v>234</v>
+      </c>
+      <c r="C1820" t="n">
+        <v>240.6999969482422</v>
+      </c>
+      <c r="D1820" t="n">
+        <v>231.4499969482422</v>
+      </c>
+      <c r="E1820" t="n">
+        <v>235.1499938964844</v>
+      </c>
+      <c r="F1820" t="inlineStr"/>
+      <c r="G1820" t="n">
+        <v>94362</v>
+      </c>
+      <c r="H1820" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1820" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1820" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1820" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1820" t="inlineStr"/>
+    </row>
+    <row r="1821">
+      <c r="A1821" s="2" t="n">
+        <v>45673</v>
+      </c>
+      <c r="B1821" t="n">
+        <v>236.75</v>
+      </c>
+      <c r="C1821" t="n">
+        <v>245</v>
+      </c>
+      <c r="D1821" t="n">
+        <v>236.1000061035156</v>
+      </c>
+      <c r="E1821" t="n">
+        <v>242.0500030517578</v>
+      </c>
+      <c r="F1821" t="inlineStr"/>
+      <c r="G1821" t="n">
+        <v>67558</v>
+      </c>
+      <c r="H1821" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1821" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1821" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1821" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1821" t="inlineStr"/>
+    </row>
+    <row r="1822">
+      <c r="A1822" s="2" t="n">
+        <v>45674</v>
+      </c>
+      <c r="B1822" t="n">
+        <v>242.0500030517578</v>
+      </c>
+      <c r="C1822" t="n">
+        <v>244.4499969482422</v>
+      </c>
+      <c r="D1822" t="n">
+        <v>238.3999938964844</v>
+      </c>
+      <c r="E1822" t="n">
+        <v>239.3999938964844</v>
+      </c>
+      <c r="F1822" t="inlineStr"/>
+      <c r="G1822" t="n">
+        <v>42899</v>
+      </c>
+      <c r="H1822" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1822" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1822" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1822" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1822" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1822" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1822" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/APEX.NS.xlsx
+++ b/stock_historical_data/1d/APEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1822"/>
+  <dimension ref="A1:R1827"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102227,7 +102227,9 @@
       <c r="Q1818" t="n">
         <v>0</v>
       </c>
-      <c r="R1818" t="inlineStr"/>
+      <c r="R1818" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1819">
       <c r="A1819" s="2" t="n">
@@ -102279,7 +102281,9 @@
       <c r="Q1819" t="n">
         <v>0</v>
       </c>
-      <c r="R1819" t="inlineStr"/>
+      <c r="R1819" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1820">
       <c r="A1820" s="2" t="n">
@@ -102331,7 +102335,9 @@
       <c r="Q1820" t="n">
         <v>0</v>
       </c>
-      <c r="R1820" t="inlineStr"/>
+      <c r="R1820" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1821">
       <c r="A1821" s="2" t="n">
@@ -102383,7 +102389,9 @@
       <c r="Q1821" t="n">
         <v>0</v>
       </c>
-      <c r="R1821" t="inlineStr"/>
+      <c r="R1821" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1822">
       <c r="A1822" s="2" t="n">
@@ -102435,7 +102443,269 @@
       <c r="Q1822" t="n">
         <v>2</v>
       </c>
-      <c r="R1822" t="inlineStr"/>
+      <c r="R1822" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1823">
+      <c r="A1823" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B1823" t="n">
+        <v>238</v>
+      </c>
+      <c r="C1823" t="n">
+        <v>243.8500061035156</v>
+      </c>
+      <c r="D1823" t="n">
+        <v>237.1499938964844</v>
+      </c>
+      <c r="E1823" t="n">
+        <v>241.8000030517578</v>
+      </c>
+      <c r="F1823" t="inlineStr"/>
+      <c r="G1823" t="n">
+        <v>36932</v>
+      </c>
+      <c r="H1823" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1823" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1823" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1823" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1823" t="inlineStr"/>
+    </row>
+    <row r="1824">
+      <c r="A1824" s="2" t="n">
+        <v>45678</v>
+      </c>
+      <c r="B1824" t="n">
+        <v>241.8999938964844</v>
+      </c>
+      <c r="C1824" t="n">
+        <v>246.8500061035156</v>
+      </c>
+      <c r="D1824" t="n">
+        <v>239.1499938964844</v>
+      </c>
+      <c r="E1824" t="n">
+        <v>241.3500061035156</v>
+      </c>
+      <c r="F1824" t="inlineStr"/>
+      <c r="G1824" t="n">
+        <v>52060</v>
+      </c>
+      <c r="H1824" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1824" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1824" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1824" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1824" t="inlineStr"/>
+    </row>
+    <row r="1825">
+      <c r="A1825" s="2" t="n">
+        <v>45679</v>
+      </c>
+      <c r="B1825" t="n">
+        <v>238.9499969482422</v>
+      </c>
+      <c r="C1825" t="n">
+        <v>243.9499969482422</v>
+      </c>
+      <c r="D1825" t="n">
+        <v>235</v>
+      </c>
+      <c r="E1825" t="n">
+        <v>241.1999969482422</v>
+      </c>
+      <c r="F1825" t="inlineStr"/>
+      <c r="G1825" t="n">
+        <v>63416</v>
+      </c>
+      <c r="H1825" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1825" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1825" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1825" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1825" t="inlineStr"/>
+    </row>
+    <row r="1826">
+      <c r="A1826" s="2" t="n">
+        <v>45680</v>
+      </c>
+      <c r="B1826" t="n">
+        <v>241.8999938964844</v>
+      </c>
+      <c r="C1826" t="n">
+        <v>256.7999877929688</v>
+      </c>
+      <c r="D1826" t="n">
+        <v>239.0500030517578</v>
+      </c>
+      <c r="E1826" t="n">
+        <v>247.9499969482422</v>
+      </c>
+      <c r="F1826" t="inlineStr"/>
+      <c r="G1826" t="n">
+        <v>206001</v>
+      </c>
+      <c r="H1826" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1826" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1826" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1826" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1826" t="inlineStr"/>
+    </row>
+    <row r="1827">
+      <c r="A1827" s="2" t="n">
+        <v>45681</v>
+      </c>
+      <c r="B1827" t="n">
+        <v>248</v>
+      </c>
+      <c r="C1827" t="n">
+        <v>260.3999938964844</v>
+      </c>
+      <c r="D1827" t="n">
+        <v>241.4499969482422</v>
+      </c>
+      <c r="E1827" t="n">
+        <v>250.1999969482422</v>
+      </c>
+      <c r="F1827" t="inlineStr"/>
+      <c r="G1827" t="n">
+        <v>323089</v>
+      </c>
+      <c r="H1827" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1827" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1827" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1827" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1827" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/APEX.NS.xlsx
+++ b/stock_historical_data/1d/APEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1827"/>
+  <dimension ref="A1:R1832"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102219,7 +102219,7 @@
         <v>3</v>
       </c>
       <c r="O1818" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1818" t="n">
         <v>0</v>
@@ -102497,7 +102497,9 @@
       <c r="Q1823" t="n">
         <v>0</v>
       </c>
-      <c r="R1823" t="inlineStr"/>
+      <c r="R1823" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1824">
       <c r="A1824" s="2" t="n">
@@ -102549,7 +102551,9 @@
       <c r="Q1824" t="n">
         <v>0</v>
       </c>
-      <c r="R1824" t="inlineStr"/>
+      <c r="R1824" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1825">
       <c r="A1825" s="2" t="n">
@@ -102601,7 +102605,9 @@
       <c r="Q1825" t="n">
         <v>0</v>
       </c>
-      <c r="R1825" t="inlineStr"/>
+      <c r="R1825" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1826">
       <c r="A1826" s="2" t="n">
@@ -102653,7 +102659,9 @@
       <c r="Q1826" t="n">
         <v>0</v>
       </c>
-      <c r="R1826" t="inlineStr"/>
+      <c r="R1826" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1827">
       <c r="A1827" s="2" t="n">
@@ -102705,7 +102713,269 @@
       <c r="Q1827" t="n">
         <v>0</v>
       </c>
-      <c r="R1827" t="inlineStr"/>
+      <c r="R1827" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1828">
+      <c r="A1828" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B1828" t="n">
+        <v>246.5500030517578</v>
+      </c>
+      <c r="C1828" t="n">
+        <v>249.8000030517578</v>
+      </c>
+      <c r="D1828" t="n">
+        <v>232</v>
+      </c>
+      <c r="E1828" t="n">
+        <v>233.6499938964844</v>
+      </c>
+      <c r="F1828" t="inlineStr"/>
+      <c r="G1828" t="n">
+        <v>92853</v>
+      </c>
+      <c r="H1828" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1828" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1828" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1828" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1828" t="inlineStr"/>
+    </row>
+    <row r="1829">
+      <c r="A1829" s="2" t="n">
+        <v>45685</v>
+      </c>
+      <c r="B1829" t="n">
+        <v>234</v>
+      </c>
+      <c r="C1829" t="n">
+        <v>237.3500061035156</v>
+      </c>
+      <c r="D1829" t="n">
+        <v>225</v>
+      </c>
+      <c r="E1829" t="n">
+        <v>231.25</v>
+      </c>
+      <c r="F1829" t="inlineStr"/>
+      <c r="G1829" t="n">
+        <v>116816</v>
+      </c>
+      <c r="H1829" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1829" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1829" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1829" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1829" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1829" t="inlineStr"/>
+    </row>
+    <row r="1830">
+      <c r="A1830" s="2" t="n">
+        <v>45686</v>
+      </c>
+      <c r="B1830" t="n">
+        <v>234.5</v>
+      </c>
+      <c r="C1830" t="n">
+        <v>247.8999938964844</v>
+      </c>
+      <c r="D1830" t="n">
+        <v>231.5</v>
+      </c>
+      <c r="E1830" t="n">
+        <v>243.3500061035156</v>
+      </c>
+      <c r="F1830" t="inlineStr"/>
+      <c r="G1830" t="n">
+        <v>114265</v>
+      </c>
+      <c r="H1830" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1830" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1830" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1830" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1830" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1830" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1830" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1830" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1830" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1830" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1830" t="inlineStr"/>
+    </row>
+    <row r="1831">
+      <c r="A1831" s="2" t="n">
+        <v>45687</v>
+      </c>
+      <c r="B1831" t="n">
+        <v>246.5</v>
+      </c>
+      <c r="C1831" t="n">
+        <v>250.8500061035156</v>
+      </c>
+      <c r="D1831" t="n">
+        <v>243.1000061035156</v>
+      </c>
+      <c r="E1831" t="n">
+        <v>245.1999969482422</v>
+      </c>
+      <c r="F1831" t="inlineStr"/>
+      <c r="G1831" t="n">
+        <v>91101</v>
+      </c>
+      <c r="H1831" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1831" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1831" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1831" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1831" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1831" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1831" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1831" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1831" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1831" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1831" t="inlineStr"/>
+    </row>
+    <row r="1832">
+      <c r="A1832" s="2" t="n">
+        <v>45688</v>
+      </c>
+      <c r="B1832" t="n">
+        <v>248.8999938964844</v>
+      </c>
+      <c r="C1832" t="n">
+        <v>253.3999938964844</v>
+      </c>
+      <c r="D1832" t="n">
+        <v>245.1999969482422</v>
+      </c>
+      <c r="E1832" t="n">
+        <v>250.1999969482422</v>
+      </c>
+      <c r="F1832" t="inlineStr"/>
+      <c r="G1832" t="n">
+        <v>96871</v>
+      </c>
+      <c r="H1832" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1832" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1832" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1832" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1832" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1832" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1832" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1832" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1832" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1832" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1832" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/APEX.NS.xlsx
+++ b/stock_historical_data/1d/APEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1832"/>
+  <dimension ref="A1:R1838"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102767,7 +102767,9 @@
       <c r="Q1828" t="n">
         <v>0</v>
       </c>
-      <c r="R1828" t="inlineStr"/>
+      <c r="R1828" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1829">
       <c r="A1829" s="2" t="n">
@@ -102819,7 +102821,9 @@
       <c r="Q1829" t="n">
         <v>1</v>
       </c>
-      <c r="R1829" t="inlineStr"/>
+      <c r="R1829" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1830">
       <c r="A1830" s="2" t="n">
@@ -102871,7 +102875,9 @@
       <c r="Q1830" t="n">
         <v>0</v>
       </c>
-      <c r="R1830" t="inlineStr"/>
+      <c r="R1830" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1831">
       <c r="A1831" s="2" t="n">
@@ -102923,7 +102929,9 @@
       <c r="Q1831" t="n">
         <v>0</v>
       </c>
-      <c r="R1831" t="inlineStr"/>
+      <c r="R1831" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1832">
       <c r="A1832" s="2" t="n">
@@ -102975,7 +102983,321 @@
       <c r="Q1832" t="n">
         <v>0</v>
       </c>
-      <c r="R1832" t="inlineStr"/>
+      <c r="R1832" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1833">
+      <c r="A1833" s="2" t="n">
+        <v>45689</v>
+      </c>
+      <c r="B1833" t="n">
+        <v>253.9499969482422</v>
+      </c>
+      <c r="C1833" t="n">
+        <v>273</v>
+      </c>
+      <c r="D1833" t="n">
+        <v>252.5500030517578</v>
+      </c>
+      <c r="E1833" t="n">
+        <v>261.2000122070312</v>
+      </c>
+      <c r="F1833" t="inlineStr"/>
+      <c r="G1833" t="n">
+        <v>955786</v>
+      </c>
+      <c r="H1833" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1833" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1833" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1833" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1833" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1833" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1833" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1833" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1833" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1833" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1833" t="inlineStr"/>
+    </row>
+    <row r="1834">
+      <c r="A1834" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B1834" t="n">
+        <v>257.9500122070312</v>
+      </c>
+      <c r="C1834" t="n">
+        <v>257.9500122070312</v>
+      </c>
+      <c r="D1834" t="n">
+        <v>242.6499938964844</v>
+      </c>
+      <c r="E1834" t="n">
+        <v>244.6000061035156</v>
+      </c>
+      <c r="F1834" t="inlineStr"/>
+      <c r="G1834" t="n">
+        <v>153331</v>
+      </c>
+      <c r="H1834" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1834" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1834" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1834" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1834" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1834" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1834" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1834" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1834" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1834" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1834" t="inlineStr"/>
+    </row>
+    <row r="1835">
+      <c r="A1835" s="2" t="n">
+        <v>45692</v>
+      </c>
+      <c r="B1835" t="n">
+        <v>247</v>
+      </c>
+      <c r="C1835" t="n">
+        <v>248.8000030517578</v>
+      </c>
+      <c r="D1835" t="n">
+        <v>237.1000061035156</v>
+      </c>
+      <c r="E1835" t="n">
+        <v>238.5500030517578</v>
+      </c>
+      <c r="F1835" t="inlineStr"/>
+      <c r="G1835" t="n">
+        <v>83469</v>
+      </c>
+      <c r="H1835" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1835" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1835" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1835" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1835" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1835" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1835" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1835" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1835" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1835" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1835" t="inlineStr"/>
+    </row>
+    <row r="1836">
+      <c r="A1836" s="2" t="n">
+        <v>45693</v>
+      </c>
+      <c r="B1836" t="n">
+        <v>236</v>
+      </c>
+      <c r="C1836" t="n">
+        <v>247.8500061035156</v>
+      </c>
+      <c r="D1836" t="n">
+        <v>236</v>
+      </c>
+      <c r="E1836" t="n">
+        <v>242.3999938964844</v>
+      </c>
+      <c r="F1836" t="inlineStr"/>
+      <c r="G1836" t="n">
+        <v>93106</v>
+      </c>
+      <c r="H1836" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1836" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1836" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1836" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1836" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1836" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1836" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1836" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1836" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1836" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1836" t="inlineStr"/>
+    </row>
+    <row r="1837">
+      <c r="A1837" s="2" t="n">
+        <v>45694</v>
+      </c>
+      <c r="B1837" t="n">
+        <v>242.3999938964844</v>
+      </c>
+      <c r="C1837" t="n">
+        <v>244.1999969482422</v>
+      </c>
+      <c r="D1837" t="n">
+        <v>235.1000061035156</v>
+      </c>
+      <c r="E1837" t="n">
+        <v>237.5500030517578</v>
+      </c>
+      <c r="F1837" t="inlineStr"/>
+      <c r="G1837" t="n">
+        <v>57610</v>
+      </c>
+      <c r="H1837" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1837" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1837" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1837" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1837" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1837" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1837" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1837" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1837" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1837" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1837" t="inlineStr"/>
+    </row>
+    <row r="1838">
+      <c r="A1838" s="2" t="n">
+        <v>45695</v>
+      </c>
+      <c r="B1838" t="n">
+        <v>238.5500030517578</v>
+      </c>
+      <c r="C1838" t="n">
+        <v>240.1999969482422</v>
+      </c>
+      <c r="D1838" t="n">
+        <v>231.3999938964844</v>
+      </c>
+      <c r="E1838" t="n">
+        <v>234.0500030517578</v>
+      </c>
+      <c r="F1838" t="inlineStr"/>
+      <c r="G1838" t="n">
+        <v>45027</v>
+      </c>
+      <c r="H1838" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1838" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1838" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1838" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1838" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1838" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1838" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1838" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1838" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1838" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1838" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/APEX.NS.xlsx
+++ b/stock_historical_data/1d/APEX.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1838"/>
+  <dimension ref="A1:R1843"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102813,7 +102813,7 @@
         <v>5</v>
       </c>
       <c r="O1829" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1829" t="n">
         <v>0</v>
@@ -103029,7 +103029,7 @@
         <v>5</v>
       </c>
       <c r="O1833" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1833" t="n">
         <v>0</v>
@@ -103037,7 +103037,9 @@
       <c r="Q1833" t="n">
         <v>0</v>
       </c>
-      <c r="R1833" t="inlineStr"/>
+      <c r="R1833" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1834">
       <c r="A1834" s="2" t="n">
@@ -103089,7 +103091,9 @@
       <c r="Q1834" t="n">
         <v>0</v>
       </c>
-      <c r="R1834" t="inlineStr"/>
+      <c r="R1834" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1835">
       <c r="A1835" s="2" t="n">
@@ -103141,7 +103145,9 @@
       <c r="Q1835" t="n">
         <v>0</v>
       </c>
-      <c r="R1835" t="inlineStr"/>
+      <c r="R1835" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1836">
       <c r="A1836" s="2" t="n">
@@ -103193,7 +103199,9 @@
       <c r="Q1836" t="n">
         <v>0</v>
       </c>
-      <c r="R1836" t="inlineStr"/>
+      <c r="R1836" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1837">
       <c r="A1837" s="2" t="n">
@@ -103245,7 +103253,9 @@
       <c r="Q1837" t="n">
         <v>0</v>
       </c>
-      <c r="R1837" t="inlineStr"/>
+      <c r="R1837" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1838">
       <c r="A1838" s="2" t="n">
@@ -103297,7 +103307,269 @@
       <c r="Q1838" t="n">
         <v>0</v>
       </c>
-      <c r="R1838" t="inlineStr"/>
+      <c r="R1838" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1839">
+      <c r="A1839" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B1839" t="n">
+        <v>237.5</v>
+      </c>
+      <c r="C1839" t="n">
+        <v>237.5</v>
+      </c>
+      <c r="D1839" t="n">
+        <v>227.6499938964844</v>
+      </c>
+      <c r="E1839" t="n">
+        <v>231.0500030517578</v>
+      </c>
+      <c r="F1839" t="inlineStr"/>
+      <c r="G1839" t="n">
+        <v>41482</v>
+      </c>
+      <c r="H1839" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1839" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1839" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1839" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1839" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1839" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1839" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1839" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1839" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1839" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1839" t="inlineStr"/>
+    </row>
+    <row r="1840">
+      <c r="A1840" s="2" t="n">
+        <v>45699</v>
+      </c>
+      <c r="B1840" t="n">
+        <v>229.0500030517578</v>
+      </c>
+      <c r="C1840" t="n">
+        <v>234.8999938964844</v>
+      </c>
+      <c r="D1840" t="n">
+        <v>219.8999938964844</v>
+      </c>
+      <c r="E1840" t="n">
+        <v>221.5</v>
+      </c>
+      <c r="F1840" t="inlineStr"/>
+      <c r="G1840" t="n">
+        <v>66539</v>
+      </c>
+      <c r="H1840" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1840" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1840" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1840" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1840" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1840" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1840" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1840" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1840" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1840" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1840" t="inlineStr"/>
+    </row>
+    <row r="1841">
+      <c r="A1841" s="2" t="n">
+        <v>45700</v>
+      </c>
+      <c r="B1841" t="n">
+        <v>220.0500030517578</v>
+      </c>
+      <c r="C1841" t="n">
+        <v>224.6999969482422</v>
+      </c>
+      <c r="D1841" t="n">
+        <v>205</v>
+      </c>
+      <c r="E1841" t="n">
+        <v>212.6999969482422</v>
+      </c>
+      <c r="F1841" t="inlineStr"/>
+      <c r="G1841" t="n">
+        <v>105749</v>
+      </c>
+      <c r="H1841" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1841" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1841" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1841" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1841" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1841" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1841" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1841" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1841" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1841" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1841" t="inlineStr"/>
+    </row>
+    <row r="1842">
+      <c r="A1842" s="2" t="n">
+        <v>45701</v>
+      </c>
+      <c r="B1842" t="n">
+        <v>215.8999938964844</v>
+      </c>
+      <c r="C1842" t="n">
+        <v>218.0500030517578</v>
+      </c>
+      <c r="D1842" t="n">
+        <v>212.3000030517578</v>
+      </c>
+      <c r="E1842" t="n">
+        <v>214.3500061035156</v>
+      </c>
+      <c r="F1842" t="inlineStr"/>
+      <c r="G1842" t="n">
+        <v>39655</v>
+      </c>
+      <c r="H1842" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1842" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1842" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1842" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1842" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1842" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1842" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1842" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1842" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1842" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1842" t="inlineStr"/>
+    </row>
+    <row r="1843">
+      <c r="A1843" s="2" t="n">
+        <v>45702</v>
+      </c>
+      <c r="B1843" t="n">
+        <v>214.3500061035156</v>
+      </c>
+      <c r="C1843" t="n">
+        <v>217.1499938964844</v>
+      </c>
+      <c r="D1843" t="n">
+        <v>205</v>
+      </c>
+      <c r="E1843" t="n">
+        <v>206.5</v>
+      </c>
+      <c r="F1843" t="inlineStr"/>
+      <c r="G1843" t="n">
+        <v>47608</v>
+      </c>
+      <c r="H1843" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1843" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1843" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1843" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1843" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1843" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1843" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1843" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1843" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1843" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1843" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/APEX.NS.xlsx
+++ b/stock_historical_data/1d/APEX.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1843"/>
+  <dimension ref="A1:R1848"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103361,7 +103361,9 @@
       <c r="Q1839" t="n">
         <v>0</v>
       </c>
-      <c r="R1839" t="inlineStr"/>
+      <c r="R1839" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1840">
       <c r="A1840" s="2" t="n">
@@ -103413,7 +103415,9 @@
       <c r="Q1840" t="n">
         <v>1</v>
       </c>
-      <c r="R1840" t="inlineStr"/>
+      <c r="R1840" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1841">
       <c r="A1841" s="2" t="n">
@@ -103465,7 +103469,9 @@
       <c r="Q1841" t="n">
         <v>0</v>
       </c>
-      <c r="R1841" t="inlineStr"/>
+      <c r="R1841" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1842">
       <c r="A1842" s="2" t="n">
@@ -103517,7 +103523,9 @@
       <c r="Q1842" t="n">
         <v>0</v>
       </c>
-      <c r="R1842" t="inlineStr"/>
+      <c r="R1842" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1843">
       <c r="A1843" s="2" t="n">
@@ -103569,7 +103577,269 @@
       <c r="Q1843" t="n">
         <v>0</v>
       </c>
-      <c r="R1843" t="inlineStr"/>
+      <c r="R1843" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1844">
+      <c r="A1844" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B1844" t="n">
+        <v>203.3999938964844</v>
+      </c>
+      <c r="C1844" t="n">
+        <v>215</v>
+      </c>
+      <c r="D1844" t="n">
+        <v>197.6999969482422</v>
+      </c>
+      <c r="E1844" t="n">
+        <v>210.5500030517578</v>
+      </c>
+      <c r="F1844" t="inlineStr"/>
+      <c r="G1844" t="n">
+        <v>66723</v>
+      </c>
+      <c r="H1844" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1844" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1844" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1844" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1844" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1844" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1844" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1844" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1844" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1844" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1844" t="inlineStr"/>
+    </row>
+    <row r="1845">
+      <c r="A1845" s="2" t="n">
+        <v>45706</v>
+      </c>
+      <c r="B1845" t="n">
+        <v>209.5500030517578</v>
+      </c>
+      <c r="C1845" t="n">
+        <v>214.6499938964844</v>
+      </c>
+      <c r="D1845" t="n">
+        <v>207</v>
+      </c>
+      <c r="E1845" t="n">
+        <v>210.5500030517578</v>
+      </c>
+      <c r="F1845" t="inlineStr"/>
+      <c r="G1845" t="n">
+        <v>51131</v>
+      </c>
+      <c r="H1845" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1845" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1845" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1845" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1845" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1845" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1845" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1845" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1845" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1845" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1845" t="inlineStr"/>
+    </row>
+    <row r="1846">
+      <c r="A1846" s="2" t="n">
+        <v>45707</v>
+      </c>
+      <c r="B1846" t="n">
+        <v>208.4499969482422</v>
+      </c>
+      <c r="C1846" t="n">
+        <v>222.5</v>
+      </c>
+      <c r="D1846" t="n">
+        <v>208.4499969482422</v>
+      </c>
+      <c r="E1846" t="n">
+        <v>220.3500061035156</v>
+      </c>
+      <c r="F1846" t="inlineStr"/>
+      <c r="G1846" t="n">
+        <v>73714</v>
+      </c>
+      <c r="H1846" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1846" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1846" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1846" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1846" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1846" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1846" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1846" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1846" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1846" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1846" t="inlineStr"/>
+    </row>
+    <row r="1847">
+      <c r="A1847" s="2" t="n">
+        <v>45708</v>
+      </c>
+      <c r="B1847" t="n">
+        <v>220.6499938964844</v>
+      </c>
+      <c r="C1847" t="n">
+        <v>224.4499969482422</v>
+      </c>
+      <c r="D1847" t="n">
+        <v>214.1999969482422</v>
+      </c>
+      <c r="E1847" t="n">
+        <v>215.25</v>
+      </c>
+      <c r="F1847" t="inlineStr"/>
+      <c r="G1847" t="n">
+        <v>67243</v>
+      </c>
+      <c r="H1847" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1847" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1847" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1847" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1847" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1847" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1847" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1847" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1847" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1847" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1847" t="inlineStr"/>
+    </row>
+    <row r="1848">
+      <c r="A1848" s="2" t="n">
+        <v>45709</v>
+      </c>
+      <c r="B1848" t="n">
+        <v>216.8500061035156</v>
+      </c>
+      <c r="C1848" t="n">
+        <v>219.6499938964844</v>
+      </c>
+      <c r="D1848" t="n">
+        <v>213.1000061035156</v>
+      </c>
+      <c r="E1848" t="n">
+        <v>213.6499938964844</v>
+      </c>
+      <c r="F1848" t="inlineStr"/>
+      <c r="G1848" t="n">
+        <v>34286</v>
+      </c>
+      <c r="H1848" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1848" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1848" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1848" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1848" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1848" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1848" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1848" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1848" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1848" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1848" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
